--- a/use_cases/LWR_FT_2023/run/results.xlsx
+++ b/use_cases/LWR_FT_2023/run/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_FT_2023/run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC1178-2F3B-DB42-8E60-FA7E13BB7AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C9346-F8FF-2C4E-AE79-1825475AF453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40900" yWindow="3100" windowWidth="30720" windowHeight="17000" xr2:uid="{0E0AD5E1-F50E-5F4E-9139-BDA2035603EC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="4" xr2:uid="{0E0AD5E1-F50E-5F4E-9139-BDA2035603EC}"/>
   </bookViews>
   <sheets>
     <sheet name="arma validation" sheetId="8" r:id="rId1"/>
@@ -781,7 +781,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -799,25 +799,21 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -826,6 +822,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -960,7 +961,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>20884350.143897209</c:v>
+                    <c:v>20983988.333603065</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>59328188.226587601</c:v>
@@ -984,7 +985,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>20884350.143897209</c:v>
+                    <c:v>20983988.333603065</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>59328188.226587601</c:v>
@@ -1045,7 +1046,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1305897263.1300001</c:v>
+                  <c:v>1026673178.1199999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>882854724.43999994</c:v>
@@ -9291,7 +9292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55707046-E177-6E43-A9F7-36F8F360A329}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -9304,384 +9305,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="8">
         <v>32.977089726027593</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="8">
         <v>32.982069891257282</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="8">
         <v>25.821181279965732</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="8">
         <v>25.54626235988728</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="16">
         <v>32.977089999999997</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="16">
         <v>32.980620000000002</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="8">
         <v>9.3756191019787352</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="8">
         <v>9.375560755254849</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="16">
         <v>41.194870000000002</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="17">
         <v>41.570810000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="8">
         <v>23.072473018716131</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="8">
         <v>23.14013174622033</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="8">
         <v>110.32042329668749</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="8">
         <v>110.57936084123359</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>23.072469999999999</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="16">
         <v>23.11992</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="8">
         <v>15.093720414581179</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="8">
         <v>15.06729275093023</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="16">
         <v>290.6533</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="17">
         <v>290.52300000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="8">
         <v>2.27</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="8">
         <v>2.27</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="8">
         <v>-65.109300000000005</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="8">
         <v>-65.109300000000005</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>2.27</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>2.27</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="8">
         <v>-66.2</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="8">
         <v>-66.2</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="16">
         <v>-20.2</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="17">
         <v>-20.2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="8">
         <v>22.72</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="8">
         <v>22.643500327024999</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="8">
         <v>14.7645</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="8">
         <v>14.37777231055</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="16">
         <v>22.72</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="16">
         <v>22.64517</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="8">
         <v>-0.48</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="8">
         <v>-0.57533928877825002</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="16">
         <v>18.850000000000001</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="17">
         <v>16.82328</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="8">
         <v>28.84</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="8">
         <v>28.838039755650001</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="8">
         <v>19.299150000000001</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="8">
         <v>19.173366480049999</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <v>28.84</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <v>28.829719999999998</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="8">
         <v>0.46</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="8">
         <v>0.58024959424</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="16">
         <v>23.93</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="17">
         <v>24.394089999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="8">
         <v>37</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="8">
         <v>37.050237273224987</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="8">
         <v>27.236725</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="8">
         <v>27.222851138425</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>37</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="16">
         <v>37.050960000000003</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="8">
         <v>21.48</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="8">
         <v>21.463601906800001</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="16">
         <v>32.020000000000003</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="17">
         <v>36.356409999999997</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="8">
         <v>933.68</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="8">
         <v>933.68</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="8">
         <v>4230.9575999999997</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="8">
         <v>4230.9575999999997</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="16">
         <v>933.68</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="16">
         <v>933.68</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="8">
         <v>97</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="8">
         <v>97</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="16">
         <v>8996.83</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="17">
         <v>8996.83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="8">
         <v>243.2975401419815</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="8">
         <v>241.7648380101034</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="8">
         <v>755.89628240068259</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="8">
         <v>749.96335094363985</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>243.29750000000001</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="16">
         <v>241.2045</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="8">
         <v>1.2113442580170011</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="8">
         <v>1.2223387323406909</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="16">
         <v>699.61369999999999</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="17">
         <v>696.71950000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="18">
         <v>10.85681406844434</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>10.81196311074452</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="18">
         <v>26.76559217679149</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="18">
         <v>26.607204309125571</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <v>10.856809999999999</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="19">
         <v>10.79345</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>1.292473562594213</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="18">
         <v>1.297771260495596</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="19">
         <v>25.769310000000001</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="20">
         <v>25.698989999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9718,13 +9719,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -9805,23 +9806,23 @@
       </c>
       <c r="C3">
         <f>data!D2</f>
-        <v>-1178</v>
+        <v>-985</v>
       </c>
       <c r="D3" s="8">
         <f>ABS(C3)*$B$16</f>
-        <v>29.597989949748744</v>
+        <v>24.748743718592966</v>
       </c>
       <c r="E3" s="8">
         <f>ABS(data!E2/1000)</f>
-        <v>29.60314</v>
+        <v>24.756</v>
       </c>
       <c r="F3" s="10">
         <f>data!K2/1000</f>
-        <v>0.01</v>
+        <v>88.02</v>
       </c>
       <c r="G3" s="6">
         <f>F3/(24*D3)</f>
-        <v>1.4077532541029996E-5</v>
+        <v>0.14818934010152282</v>
       </c>
       <c r="H3">
         <v>2102483898.8800001</v>
@@ -9831,31 +9832,31 @@
       </c>
       <c r="J3">
         <f>data!P2</f>
-        <v>3408381162.0100002</v>
+        <v>3129157077</v>
       </c>
       <c r="K3">
         <f>data!Q2</f>
-        <v>1225.80578418</v>
+        <v>1021235.95</v>
       </c>
       <c r="L3">
         <f>J3-H3</f>
-        <v>1305897263.1300001</v>
+        <v>1026673178.1199999</v>
       </c>
       <c r="M3">
         <f>SQRT(POWER(K3,2)+POWER(I3,2))</f>
-        <v>10442175.071948605</v>
+        <v>10491994.166801533</v>
       </c>
       <c r="N3" s="1">
         <f>L3</f>
-        <v>1305897263.1300001</v>
+        <v>1026673178.1199999</v>
       </c>
       <c r="O3" s="1">
         <f>2*M3</f>
-        <v>20884350.143897209</v>
+        <v>20983988.333603065</v>
       </c>
       <c r="P3" s="1">
         <f>N3/B3</f>
-        <v>1094633.0789019279</v>
+        <v>860581.03782062023</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="5"/>
@@ -12796,8 +12797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35F0C96-D3AA-4F4B-9456-DE375A306C8A}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="A8:V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12904,86 +12905,86 @@
       <c r="C2">
         <v>1193</v>
       </c>
-      <c r="D2">
-        <v>-1178</v>
-      </c>
-      <c r="E2">
-        <v>-29603.14</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="3">
+        <v>-985</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-24756</v>
+      </c>
+      <c r="F2" s="3">
         <v>-14.9</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="27">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="27">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="27">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="27">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="3">
+        <v>88020</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P2">
-        <v>3408381162.0100002</v>
-      </c>
-      <c r="Q2">
-        <v>1225.80578418</v>
-      </c>
-      <c r="R2">
-        <v>3408381275.7399998</v>
-      </c>
-      <c r="S2">
-        <v>3408382533.2399998</v>
-      </c>
-      <c r="T2">
-        <v>3408379563.3400002</v>
-      </c>
-      <c r="U2">
-        <v>3408379797.4699998</v>
-      </c>
-      <c r="V2">
-        <v>3408382367.3400002</v>
-      </c>
-      <c r="W2">
+      <c r="P2" s="3">
+        <v>3129157077</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1021235.95</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3129193928</v>
+      </c>
+      <c r="S2" s="3">
+        <v>3130347190</v>
+      </c>
+      <c r="T2" s="3">
+        <v>3127893262</v>
+      </c>
+      <c r="U2" s="3">
+        <v>3128052793</v>
+      </c>
+      <c r="V2" s="3">
+        <v>3130209769</v>
+      </c>
+      <c r="W2" s="3">
         <v>4</v>
       </c>
-      <c r="X2">
-        <v>1502599.82054</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>0.24493882102600001</v>
-      </c>
-      <c r="AA2">
-        <v>1.9309406027700001E-3</v>
-      </c>
-      <c r="AB2">
-        <v>2.4976248812400001E-2</v>
-      </c>
-      <c r="AC2">
-        <v>0.31563421828900001</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>3.7621523992799998E-13</v>
+      <c r="X2" s="28">
+        <v>1042900000000</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>3.1933999999999999E-4</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0.11112289</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>4.6199999999999995E-13</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>5.1726979999999999E-2</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>5.5555559999999997E-2</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">

--- a/use_cases/LWR_FT_2023/run/results.xlsx
+++ b/use_cases/LWR_FT_2023/run/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_FT_2023/run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1C9346-F8FF-2C4E-AE79-1825475AF453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F148B5-1C63-6240-9747-3BE5D5192604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="4" xr2:uid="{0E0AD5E1-F50E-5F4E-9139-BDA2035603EC}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="183">
   <si>
     <t>Location</t>
   </si>
@@ -269,9 +269,6 @@
     <t>nebraska</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>davis-besse</t>
   </si>
   <si>
@@ -591,6 +588,9 @@
   </si>
   <si>
     <t>Synthetic</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -807,6 +807,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,17 +823,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -9305,64 +9304,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="22"/>
+      <c r="B1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="K1" s="22"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="D2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="F2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="H2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>182</v>
-      </c>
       <c r="J2" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="8">
         <v>32.977089726027593</v>
@@ -9397,7 +9396,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="8">
         <v>23.072473018716131</v>
@@ -9432,7 +9431,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="8">
         <v>2.27</v>
@@ -9467,7 +9466,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="8">
         <v>22.72</v>
@@ -9502,7 +9501,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="8">
         <v>28.84</v>
@@ -9537,7 +9536,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="8">
         <v>37</v>
@@ -9572,7 +9571,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="8">
         <v>933.68</v>
@@ -9607,7 +9606,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="8">
         <v>243.2975401419815</v>
@@ -9642,7 +9641,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="18">
         <v>10.85681406844434</v>
@@ -9677,12 +9676,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9719,13 +9718,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
@@ -9748,7 +9747,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -9772,10 +9771,10 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -9801,11 +9800,11 @@
         <v>BRAIDWOOD</v>
       </c>
       <c r="B3">
+        <f>data!B2</f>
+        <v>1193</v>
+      </c>
+      <c r="C3">
         <f>data!C2</f>
-        <v>1193</v>
-      </c>
-      <c r="C3">
-        <f>data!D2</f>
         <v>-985</v>
       </c>
       <c r="D3" s="8">
@@ -9813,11 +9812,11 @@
         <v>24.748743718592966</v>
       </c>
       <c r="E3" s="8">
-        <f>ABS(data!E2/1000)</f>
+        <f>ABS(data!D2/1000)</f>
         <v>24.756</v>
       </c>
       <c r="F3" s="10">
-        <f>data!K2/1000</f>
+        <f>data!J2/1000</f>
         <v>88.02</v>
       </c>
       <c r="G3" s="6">
@@ -9831,11 +9830,11 @@
         <v>10442175</v>
       </c>
       <c r="J3">
+        <f>data!O2</f>
+        <v>3129157077</v>
+      </c>
+      <c r="K3">
         <f>data!P2</f>
-        <v>3129157077</v>
-      </c>
-      <c r="K3">
-        <f>data!Q2</f>
         <v>1021235.95</v>
       </c>
       <c r="L3">
@@ -9885,11 +9884,11 @@
         <v>COOPER</v>
       </c>
       <c r="B4">
+        <f>data!B3</f>
+        <v>769</v>
+      </c>
+      <c r="C4">
         <f>data!C3</f>
-        <v>769</v>
-      </c>
-      <c r="C4">
-        <f>data!D3</f>
         <v>-754</v>
       </c>
       <c r="D4" s="8">
@@ -9897,11 +9896,11 @@
         <v>18.944723618090453</v>
       </c>
       <c r="E4" s="8">
-        <f>ABS(data!E3/1000)</f>
+        <f>ABS(data!D3/1000)</f>
         <v>18.948</v>
       </c>
       <c r="F4" s="10">
-        <f>data!K3/1000</f>
+        <f>data!J3/1000</f>
         <v>0.01</v>
       </c>
       <c r="G4" s="6">
@@ -9915,11 +9914,11 @@
         <v>29664093.298599999</v>
       </c>
       <c r="J4">
+        <f>data!O3</f>
+        <v>1941425295.5999999</v>
+      </c>
+      <c r="K4">
         <f>data!P3</f>
-        <v>1941425295.5999999</v>
-      </c>
-      <c r="K4">
-        <f>data!Q3</f>
         <v>6952.2878666099996</v>
       </c>
       <c r="L4">
@@ -9969,11 +9968,11 @@
         <v>DAVIS-BESSE</v>
       </c>
       <c r="B5">
+        <f>data!B4</f>
+        <v>894</v>
+      </c>
+      <c r="C5">
         <f>data!C4</f>
-        <v>894</v>
-      </c>
-      <c r="C5">
-        <f>data!D4</f>
         <v>-879</v>
       </c>
       <c r="D5" s="8">
@@ -9981,11 +9980,11 @@
         <v>22.085427135678394</v>
       </c>
       <c r="E5" s="8">
-        <f>ABS(data!E4/1000)</f>
+        <f>ABS(data!D4/1000)</f>
         <v>22.088999999999999</v>
       </c>
       <c r="F5" s="10">
-        <f>data!K4/1000</f>
+        <f>data!J4/1000</f>
         <v>0.01</v>
       </c>
       <c r="G5" s="6">
@@ -9999,11 +9998,11 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <f>data!O4</f>
+        <v>2357253019.6300001</v>
+      </c>
+      <c r="K5">
         <f>data!P4</f>
-        <v>2357253019.6300001</v>
-      </c>
-      <c r="K5">
-        <f>data!Q4</f>
         <v>1077.46392866</v>
       </c>
       <c r="L5">
@@ -10053,11 +10052,11 @@
         <v>PRAIRIE-ISLAND</v>
       </c>
       <c r="B6">
+        <f>data!B5</f>
+        <v>522</v>
+      </c>
+      <c r="C6">
         <f>data!C5</f>
-        <v>522</v>
-      </c>
-      <c r="C6">
-        <f>data!D5</f>
         <v>-507</v>
       </c>
       <c r="D6" s="8">
@@ -10065,11 +10064,11 @@
         <v>12.738693467336685</v>
       </c>
       <c r="E6" s="8">
-        <f>ABS(data!E5/1000)</f>
+        <f>ABS(data!D5/1000)</f>
         <v>12.741</v>
       </c>
       <c r="F6" s="10">
-        <f>data!K5/1000</f>
+        <f>data!J5/1000</f>
         <v>35</v>
       </c>
       <c r="G6" s="6">
@@ -10083,11 +10082,11 @@
         <v>553965.52426600002</v>
       </c>
       <c r="J6">
+        <f>data!O5</f>
+        <v>1177078719.72</v>
+      </c>
+      <c r="K6">
         <f>data!P5</f>
-        <v>1177078719.72</v>
-      </c>
-      <c r="K6">
-        <f>data!Q5</f>
         <v>45333.174797</v>
       </c>
       <c r="L6">
@@ -10137,11 +10136,11 @@
         <v>STP</v>
       </c>
       <c r="B7">
+        <f>data!B6</f>
+        <v>1280</v>
+      </c>
+      <c r="C7">
         <f>data!C6</f>
-        <v>1280</v>
-      </c>
-      <c r="C7">
-        <f>data!D6</f>
         <v>-1265</v>
       </c>
       <c r="D7" s="8">
@@ -10149,11 +10148,11 @@
         <v>31.78391959798995</v>
       </c>
       <c r="E7" s="8">
-        <f>ABS(data!E6/1000)</f>
+        <f>ABS(data!D6/1000)</f>
         <v>31.789000000000001</v>
       </c>
       <c r="F7" s="10">
-        <f>data!K6/1000</f>
+        <f>data!J6/1000</f>
         <v>2000</v>
       </c>
       <c r="G7" s="6">
@@ -10167,11 +10166,11 @@
         <v>83894741.873400003</v>
       </c>
       <c r="J7">
+        <f>data!O6</f>
+        <v>2880661882.02</v>
+      </c>
+      <c r="K7">
         <f>data!P6</f>
-        <v>2880661882.02</v>
-      </c>
-      <c r="K7">
-        <f>data!Q6</f>
         <v>18447721.6961</v>
       </c>
       <c r="L7">
@@ -10364,73 +10363,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="Y1" t="s">
         <v>1</v>
@@ -10438,7 +10437,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3">
         <v>1193</v>
@@ -10515,7 +10514,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3">
         <v>769</v>
@@ -10592,7 +10591,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3">
         <v>894</v>
@@ -10669,7 +10668,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" s="3">
         <v>522</v>
@@ -10746,7 +10745,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3">
         <v>1280</v>
@@ -10877,46 +10876,46 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="J9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s">
-        <v>147</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -10929,7 +10928,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="13">
         <v>-659880292</v>
@@ -10984,7 +10983,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="13">
         <v>-445702390</v>
@@ -11039,7 +11038,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="13">
         <v>-528759325</v>
@@ -11094,7 +11093,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="13">
         <v>-308302047</v>
@@ -11149,7 +11148,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="13">
         <v>-735892435</v>
@@ -12359,33 +12358,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" t="s">
-        <v>123</v>
-      </c>
       <c r="G1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2">
         <v>-12036524.699999999</v>
@@ -12405,10 +12404,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>-88.977912595000106</v>
@@ -12428,10 +12427,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4">
         <v>12036524.699999999</v>
@@ -12451,10 +12450,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5">
         <v>-25932350.640000001</v>
@@ -12474,10 +12473,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6">
         <v>21724460.112</v>
@@ -12497,10 +12496,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7">
         <v>17932465.475999899</v>
@@ -12520,10 +12519,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -12543,10 +12542,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9">
         <v>-13052.4</v>
@@ -12566,10 +12565,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -12589,10 +12588,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11">
         <v>34.626940449350101</v>
@@ -12612,10 +12611,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12">
         <v>558.895000005253</v>
@@ -12635,10 +12634,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13">
         <v>-1031926.6202999901</v>
@@ -12658,10 +12657,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14">
         <v>25932316.001499798</v>
@@ -12681,10 +12680,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15">
         <v>-21724460.112</v>
@@ -12704,10 +12703,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16">
         <v>-17932465.475999899</v>
@@ -12727,10 +12726,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17">
         <v>1045068</v>
@@ -12750,7 +12749,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" t="str">
         <f>C1</f>
@@ -12775,17 +12774,17 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -12795,216 +12794,208 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35F0C96-D3AA-4F4B-9456-DE375A306C8A}">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:AD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="X1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Y1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AC1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
         <v>1193</v>
       </c>
+      <c r="C2" s="3">
+        <v>-985</v>
+      </c>
       <c r="D2" s="3">
-        <v>-985</v>
+        <v>-24756</v>
       </c>
       <c r="E2" s="3">
-        <v>-24756</v>
-      </c>
-      <c r="F2" s="3">
         <v>-14.9</v>
       </c>
-      <c r="G2" s="27">
+      <c r="F2" s="21">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H2" s="27">
+      <c r="G2" s="21">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I2" s="27">
+      <c r="H2" s="21">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="J2" s="27">
+      <c r="I2" s="21">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="K2" s="3">
+      <c r="J2" s="3">
         <v>88020</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="L2" s="3" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="O2" s="3">
+        <v>3129157077</v>
+      </c>
       <c r="P2" s="3">
-        <v>3129157077</v>
+        <v>1021235.95</v>
       </c>
       <c r="Q2" s="3">
-        <v>1021235.95</v>
+        <v>3129193928</v>
       </c>
       <c r="R2" s="3">
-        <v>3129193928</v>
+        <v>3130347190</v>
       </c>
       <c r="S2" s="3">
-        <v>3130347190</v>
+        <v>3127893262</v>
       </c>
       <c r="T2" s="3">
-        <v>3127893262</v>
+        <v>3128052793</v>
       </c>
       <c r="U2" s="3">
-        <v>3128052793</v>
+        <v>3130209769</v>
       </c>
       <c r="V2" s="3">
-        <v>3130209769</v>
+        <v>4</v>
       </c>
       <c r="W2" s="3">
-        <v>4</v>
-      </c>
-      <c r="X2" s="28">
         <v>1042900000000</v>
       </c>
+      <c r="X2" s="3">
+        <v>3.1933999999999999E-4</v>
+      </c>
       <c r="Y2" s="3">
-        <v>3.1933999999999999E-4</v>
-      </c>
-      <c r="Z2" s="3">
         <v>0.11112289</v>
       </c>
-      <c r="AA2" s="27">
+      <c r="Z2" s="21">
         <v>4.6199999999999995E-13</v>
       </c>
+      <c r="AA2" s="3">
+        <v>5.1726979999999999E-2</v>
+      </c>
       <c r="AB2" s="3">
-        <v>5.1726979999999999E-2</v>
+        <v>5.5555559999999997E-2</v>
       </c>
       <c r="AC2" s="3">
-        <v>5.5555559999999997E-2</v>
-      </c>
-      <c r="AD2" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="C3">
-        <v>769</v>
+        <v>-754</v>
       </c>
       <c r="D3">
-        <v>-754</v>
+        <v>-18948</v>
       </c>
       <c r="E3">
-        <v>-18948</v>
-      </c>
-      <c r="F3">
         <v>-14.9</v>
+      </c>
+      <c r="F3" s="9">
+        <v>-9.9999999999999997E+199</v>
       </c>
       <c r="G3" s="9">
         <v>-9.9999999999999997E+199</v>
@@ -13015,88 +13006,85 @@
       <c r="I3" s="9">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3">
+        <v>1941425295.5999999</v>
+      </c>
+      <c r="P3">
+        <v>6952.2878666099996</v>
+      </c>
+      <c r="Q3">
+        <v>1941428170.23</v>
+      </c>
+      <c r="R3">
+        <v>1941429832.72</v>
+      </c>
+      <c r="S3">
+        <v>1941415009.23</v>
+      </c>
+      <c r="T3">
+        <v>1941416830.3699999</v>
+      </c>
+      <c r="U3">
+        <v>1941429736.3599999</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>48334306.580200002</v>
+      </c>
+      <c r="X3">
+        <v>0.263848935103</v>
+      </c>
+      <c r="Y3">
+        <v>2.1611600770599999E-2</v>
+      </c>
+      <c r="Z3">
+        <v>0.30264679038600001</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>1.22768367385E-12</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0.27064220183499998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>894</v>
+      </c>
+      <c r="C4">
+        <v>-879</v>
+      </c>
+      <c r="D4">
+        <v>-22089</v>
+      </c>
+      <c r="E4">
+        <v>-14.9</v>
+      </c>
+      <c r="F4" s="9">
         <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3">
-        <v>1941425295.5999999</v>
-      </c>
-      <c r="Q3">
-        <v>6952.2878666099996</v>
-      </c>
-      <c r="R3">
-        <v>1941428170.23</v>
-      </c>
-      <c r="S3">
-        <v>1941429832.72</v>
-      </c>
-      <c r="T3">
-        <v>1941415009.23</v>
-      </c>
-      <c r="U3">
-        <v>1941416830.3699999</v>
-      </c>
-      <c r="V3">
-        <v>1941429736.3599999</v>
-      </c>
-      <c r="W3">
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <v>48334306.580200002</v>
-      </c>
-      <c r="Y3">
-        <v>0.263848935103</v>
-      </c>
-      <c r="Z3">
-        <v>2.1611600770599999E-2</v>
-      </c>
-      <c r="AA3">
-        <v>0.30264679038600001</v>
-      </c>
-      <c r="AB3" s="9">
-        <v>1.22768367385E-12</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>0.27064220183499998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>894</v>
-      </c>
-      <c r="D4">
-        <v>-879</v>
-      </c>
-      <c r="E4">
-        <v>-22089</v>
-      </c>
-      <c r="F4">
-        <v>-14.9</v>
       </c>
       <c r="G4" s="9">
         <v>-9.9999999999999997E+199</v>
@@ -13107,88 +13095,85 @@
       <c r="I4" s="9">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4">
+        <v>2357253019.6300001</v>
+      </c>
+      <c r="P4">
+        <v>1077.46392866</v>
+      </c>
+      <c r="Q4">
+        <v>2357252830.3800001</v>
+      </c>
+      <c r="R4">
+        <v>2357254371.6500001</v>
+      </c>
+      <c r="S4">
+        <v>2357252046.0900002</v>
+      </c>
+      <c r="T4">
+        <v>2357252079.1900001</v>
+      </c>
+      <c r="U4">
+        <v>2357254225.0100002</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>1160928.5175600001</v>
+      </c>
+      <c r="X4">
+        <v>2.1252890767700001E-2</v>
+      </c>
+      <c r="Y4">
+        <v>0.30877094401299998</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="9">
+        <v>7.2869255798000005E-13</v>
+      </c>
+      <c r="AB4">
+        <v>0.275353016688</v>
+      </c>
+      <c r="AC4">
+        <v>0.24997221913500001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>522</v>
+      </c>
+      <c r="C5">
+        <v>-507</v>
+      </c>
+      <c r="D5">
+        <v>-12741</v>
+      </c>
+      <c r="E5">
+        <v>-14.9</v>
+      </c>
+      <c r="F5" s="9">
         <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4">
-        <v>2357253019.6300001</v>
-      </c>
-      <c r="Q4">
-        <v>1077.46392866</v>
-      </c>
-      <c r="R4">
-        <v>2357252830.3800001</v>
-      </c>
-      <c r="S4">
-        <v>2357254371.6500001</v>
-      </c>
-      <c r="T4">
-        <v>2357252046.0900002</v>
-      </c>
-      <c r="U4">
-        <v>2357252079.1900001</v>
-      </c>
-      <c r="V4">
-        <v>2357254225.0100002</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>1160928.5175600001</v>
-      </c>
-      <c r="Y4">
-        <v>2.1252890767700001E-2</v>
-      </c>
-      <c r="Z4">
-        <v>0.30877094401299998</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="9">
-        <v>7.2869255798000005E-13</v>
-      </c>
-      <c r="AC4">
-        <v>0.275353016688</v>
-      </c>
-      <c r="AD4">
-        <v>0.24997221913500001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>522</v>
-      </c>
-      <c r="D5">
-        <v>-507</v>
-      </c>
-      <c r="E5">
-        <v>-12741</v>
-      </c>
-      <c r="F5">
-        <v>-14.9</v>
       </c>
       <c r="G5" s="9">
         <v>-9.9999999999999997E+199</v>
@@ -13199,88 +13184,85 @@
       <c r="I5" s="9">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="J5" s="9">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
         <v>35000</v>
       </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
         <v>73</v>
       </c>
+      <c r="O5">
+        <v>1177078719.72</v>
+      </c>
       <c r="P5">
-        <v>1177078719.72</v>
+        <v>45333.174797</v>
       </c>
       <c r="Q5">
-        <v>45333.174797</v>
+        <v>1177087754.28</v>
       </c>
       <c r="R5">
-        <v>1177087754.28</v>
+        <v>1177118966.7</v>
       </c>
       <c r="S5">
-        <v>1177118966.7</v>
+        <v>1177020403.6300001</v>
       </c>
       <c r="T5">
-        <v>1177020403.6300001</v>
+        <v>1177027183.3699999</v>
       </c>
       <c r="U5">
-        <v>1177027183.3699999</v>
+        <v>1177117607.7</v>
       </c>
       <c r="V5">
-        <v>1177117607.7</v>
+        <v>4</v>
       </c>
       <c r="W5">
+        <v>2055096737.1700001</v>
+      </c>
+      <c r="X5">
+        <v>5.2021435833E-2</v>
+      </c>
+      <c r="Y5">
+        <v>0.5</v>
+      </c>
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="X5">
-        <v>2055096737.1700001</v>
-      </c>
-      <c r="Y5">
-        <v>5.2021435833E-2</v>
-      </c>
-      <c r="Z5">
-        <v>0.5</v>
-      </c>
       <c r="AA5">
-        <v>4</v>
-      </c>
-      <c r="AB5">
         <v>0.315724815725</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AB5" s="9">
         <v>3.4322497171699999E-12</v>
       </c>
-      <c r="AD5">
+      <c r="AC5">
         <v>0.32953656628900002</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="C6">
-        <v>1280</v>
+        <v>-1265</v>
       </c>
       <c r="D6">
-        <v>-1265</v>
+        <v>-31789</v>
       </c>
       <c r="E6">
-        <v>-31789</v>
-      </c>
-      <c r="F6">
         <v>-14.9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-9.9999999999999997E+199</v>
       </c>
       <c r="G6" s="9">
         <v>-9.9999999999999997E+199</v>
@@ -13291,67 +13273,64 @@
       <c r="I6" s="9">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="J6" s="9">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
         <v>2000000</v>
       </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s">
         <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
         <v>73</v>
       </c>
+      <c r="O6">
+        <v>2880661882.02</v>
+      </c>
       <c r="P6">
-        <v>2880661882.02</v>
+        <v>18447721.6961</v>
       </c>
       <c r="Q6">
-        <v>18447721.6961</v>
+        <v>2882183403.02</v>
       </c>
       <c r="R6">
-        <v>2882183403.02</v>
+        <v>2919873833.9099998</v>
       </c>
       <c r="S6">
-        <v>2919873833.9099998</v>
+        <v>2851246232.9899998</v>
       </c>
       <c r="T6">
-        <v>2851246232.9899998</v>
+        <v>2856011739.0500002</v>
       </c>
       <c r="U6">
-        <v>2856011739.0500002</v>
+        <v>2905799143.7800002</v>
       </c>
       <c r="V6">
-        <v>2905799143.7800002</v>
-      </c>
-      <c r="W6">
         <v>10</v>
       </c>
-      <c r="X6" s="9">
+      <c r="W6" s="9">
         <v>340318435777000</v>
       </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
       <c r="Y6">
-        <v>10</v>
+        <v>0.28673657603500002</v>
       </c>
       <c r="Z6">
-        <v>0.28673657603500002</v>
+        <v>0.26394849785399999</v>
       </c>
       <c r="AA6">
-        <v>0.26394849785399999</v>
-      </c>
-      <c r="AB6">
         <v>1.8921016736099999E-2</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AB6" s="9">
         <v>1.46600182842E-14</v>
       </c>
-      <c r="AD6">
+      <c r="AC6">
         <v>0.25000125000599999</v>
       </c>
     </row>
@@ -13501,7 +13480,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>3074632640</v>
@@ -13543,7 +13522,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>3742129513.6399999</v>
@@ -13568,7 +13547,7 @@
         <v>6.3685563983665594E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K5">
         <v>1488604013.21</v>
@@ -13585,7 +13564,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>3638289510.6999998</v>
@@ -13610,7 +13589,7 @@
         <v>6.799151829447324E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>-961918169.88000011</v>
@@ -13627,7 +13606,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>3178471619</v>
@@ -13654,7 +13633,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>2997735054</v>
@@ -13681,7 +13660,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>2587092125.7199998</v>
@@ -13708,7 +13687,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>3591087912.0900002</v>
@@ -13735,7 +13714,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>3225675050</v>
@@ -13762,7 +13741,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>1140565729</v>
@@ -13789,7 +13768,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>2930351886</v>
@@ -13816,7 +13795,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>3408336785.7199998</v>
@@ -13843,7 +13822,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15">
         <v>3408425168</v>
@@ -13887,7 +13866,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <f>E12</f>
@@ -13971,7 +13950,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <f>E10</f>
@@ -13992,7 +13971,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23">
         <f>E14</f>
@@ -14066,15 +14045,15 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>3408381162.0100002</v>
@@ -14096,7 +14075,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>610618098.39999998</v>
@@ -14118,7 +14097,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>1140565729</v>
@@ -14140,7 +14119,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <v>2930351886</v>
@@ -14162,10 +14141,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/use_cases/LWR_FT_2023/run/results.xlsx
+++ b/use_cases/LWR_FT_2023/run/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_FT_2023/run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AEA26E-7F36-E140-857F-159365A6953F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90171983-B2F1-2744-B33D-2524D757544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="197">
   <si>
     <t>Braidwood</t>
   </si>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t>Delta NPV variation</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -899,6 +905,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1198,7 +1205,7 @@
         <c:axId val="2124379024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1500000000"/>
+          <c:max val="1250000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2262,7 +2269,7 @@
                   <c:v>972148741.11999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1535805611.8199997</c:v>
+                  <c:v>1233608328.1900001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1488604013.21</c:v>
@@ -2349,7 +2356,7 @@
                   <c:v>1639645614.7599998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1075987720.1199999</c:v>
+                  <c:v>825515371.5999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1123191151.1199999</c:v>
@@ -2421,7 +2428,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1796024143"/>
-        <c:crossesAt val="1305897263"/>
+        <c:crossesAt val="1026673178"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2619,7 +2626,7 @@
                   <c:v>972148741.11999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1535805611.8199997</c:v>
+                  <c:v>1233608328.1900001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1488604013.21</c:v>
@@ -2700,7 +2707,7 @@
                   <c:v>1639645614.7599998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1075987720.1199999</c:v>
+                  <c:v>825515371.5999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1123191151.1199999</c:v>
@@ -2772,7 +2779,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1796024143"/>
-        <c:crossesAt val="1305897263"/>
+        <c:crossesAt val="1026673178"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3701,15 +3708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3737,14 +3744,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4550,7 +4557,7 @@
   <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4663,11 +4670,11 @@
       <c r="B3" t="s">
         <v>137</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <f>LOOKUP($B3,data!$A:$A,data!B:B)</f>
         <v>1193</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <f>LOOKUP($B3,data!$A:$A,data!C:C)</f>
         <v>-985</v>
       </c>
@@ -4675,15 +4682,15 @@
         <f>ABS(D3)*$C$16</f>
         <v>24.748743718592966</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <f>LOOKUP($B3,data!$A:$A,data!D:D)/1000</f>
         <v>-24.756</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <f>LOOKUP($B3,data!$A:$A,data!J:J)/1000</f>
         <v>88.02</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="30">
         <f>G3/(24*E3)</f>
         <v>0.14818934010152282</v>
       </c>
@@ -4749,11 +4756,11 @@
       <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <f>LOOKUP($B4,data!$A:$A,data!B:B)</f>
         <v>769</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <f>LOOKUP($B4,data!$A:$A,data!C:C)</f>
         <v>-754</v>
       </c>
@@ -4761,15 +4768,15 @@
         <f>ABS(D4)*$C$16</f>
         <v>18.944723618090453</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <f>LOOKUP($B4,data!$A:$A,data!D:D)/1000</f>
         <v>-18.951000000000001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <f>LOOKUP($B4,data!$A:$A,data!J:J)/1000</f>
         <v>8.4220000000000006</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="30">
         <f>G4/(24*E4)</f>
         <v>1.8523187444739169E-2</v>
       </c>
@@ -4835,11 +4842,11 @@
       <c r="B5" t="s">
         <v>147</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <f>LOOKUP($B5,data!$A:$A,data!B:B)</f>
         <v>894</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <f>LOOKUP($B5,data!$A:$A,data!C:C)</f>
         <v>-879</v>
       </c>
@@ -4847,15 +4854,15 @@
         <f>ABS(D5)*$C$16</f>
         <v>22.085427135678394</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <f>LOOKUP($B5,data!$A:$A,data!D:D)/1000</f>
         <v>-22.091999999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <f>LOOKUP($B5,data!$A:$A,data!J:J)/1000</f>
         <v>88.367000000000004</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="30">
         <f>G5/(24*E5)</f>
         <v>0.16671438187334092</v>
       </c>
@@ -4921,11 +4928,11 @@
       <c r="B6" t="s">
         <v>152</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <f>LOOKUP($B6,data!$A:$A,data!B:B)</f>
         <v>522</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <f>LOOKUP($B6,data!$A:$A,data!C:C)</f>
         <v>-507</v>
       </c>
@@ -4933,15 +4940,15 @@
         <f>ABS(D6)*$C$16</f>
         <v>12.738693467336685</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f>LOOKUP($B6,data!$A:$A,data!D:D)/1000</f>
         <v>-12.743</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <f>LOOKUP($B6,data!$A:$A,data!J:J)/1000</f>
         <v>5.6639999999999997</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="30">
         <f>G6/(24*E6)</f>
         <v>1.8526232741617354E-2</v>
       </c>
@@ -5007,11 +5014,11 @@
       <c r="B7" t="s">
         <v>157</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <f>LOOKUP($B7,data!$A:$A,data!B:B)</f>
         <v>1280</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <f>LOOKUP($B7,data!$A:$A,data!C:C)</f>
         <v>-185</v>
       </c>
@@ -5019,15 +5026,15 @@
         <f>ABS(D7)*$C$16</f>
         <v>4.6482412060301508</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <f>LOOKUP($B7,data!$A:$A,data!D:D)/1000</f>
         <v>-24.756</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <f>LOOKUP($B7,data!$A:$A,data!J:J)/1000</f>
         <v>5545.2460000000001</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="30">
         <f>G7/(24*E7)</f>
         <v>49.707385315315314</v>
       </c>
@@ -7669,7 +7676,7 @@
   <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9109,10 +9116,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9124,7 +9131,7 @@
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -9161,8 +9168,20 @@
       <c r="N1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -9203,24 +9222,36 @@
       <c r="N2">
         <v>10442175.570933471</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" t="s">
+        <v>195</v>
+      </c>
+      <c r="S2">
+        <v>-961918169.88000011</v>
+      </c>
+      <c r="T2">
+        <v>827867987.11999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>170</v>
       </c>
       <c r="B3">
-        <v>3408381162.0100002</v>
+        <v>3129157077.0999999</v>
       </c>
       <c r="C3">
         <v>1225.80578418</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" si="0"/>
-        <v>3.5964457198710559E-7</v>
+        <v>3.9173673739511875E-7</v>
       </c>
       <c r="E3">
         <f t="shared" si="1"/>
-        <v>1305897263.1300001</v>
+        <v>1026673178.2199998</v>
       </c>
       <c r="F3">
         <f t="shared" si="2"/>
@@ -9228,7 +9259,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" si="3"/>
-        <v>7.9961692609115276E-3</v>
+        <v>1.0170885706250531E-2</v>
       </c>
       <c r="J3" t="s">
         <v>171</v>
@@ -9245,8 +9276,20 @@
       <c r="N3">
         <v>10442175.557708761</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S3">
+        <v>-961918169.88000011</v>
+      </c>
+      <c r="T3">
+        <v>827867987.11999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -9287,8 +9330,20 @@
       <c r="N4">
         <v>10442175.505490299</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>173</v>
+      </c>
+      <c r="R4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S4">
+        <v>895251155.11999989</v>
+      </c>
+      <c r="T4">
+        <v>484608226.83999968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -9329,24 +9384,36 @@
       <c r="N5">
         <v>10442175.57572766</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>173</v>
+      </c>
+      <c r="R5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S5">
+        <v>895251155.11999989</v>
+      </c>
+      <c r="T5">
+        <v>484608226.83999968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>176</v>
       </c>
       <c r="B6">
-        <v>3638289510.6999998</v>
+        <v>3336092227.0700002</v>
       </c>
       <c r="C6">
         <v>1060.7914330000001</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>2.9156322768715178E-7</v>
+        <v>3.1797425274770192E-7</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>1535805611.8199997</v>
+        <v>1233608328.1900001</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
@@ -9354,7 +9421,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="3"/>
-        <v>6.799151829447324E-3</v>
+        <v>8.4647414391264691E-3</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
@@ -9371,24 +9438,36 @@
       <c r="N6">
         <v>10442175.528010551</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R6" t="s">
+        <v>195</v>
+      </c>
+      <c r="S6">
+        <v>972148741.11999989</v>
+      </c>
+      <c r="T6">
+        <v>1639645614.7599998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>177</v>
       </c>
       <c r="B7">
-        <v>3178471619</v>
+        <v>2927999270.48</v>
       </c>
       <c r="C7">
         <v>1262.40202</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>3.9717265759232189E-7</v>
+        <v>4.3114833829622124E-7</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>1075987720.1199999</v>
+        <v>825515371.5999999</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
@@ -9396,10 +9475,22 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="3"/>
-        <v>9.7047348798220395E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.2649280579076208E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R7" t="s">
+        <v>196</v>
+      </c>
+      <c r="S7">
+        <v>972148741.11999989</v>
+      </c>
+      <c r="T7">
+        <v>1639645614.7599998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -9425,8 +9516,20 @@
         <f t="shared" si="3"/>
         <v>1.1663962043322037E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>171</v>
+      </c>
+      <c r="R8" t="s">
+        <v>195</v>
+      </c>
+      <c r="S8">
+        <v>1535805611.8199997</v>
+      </c>
+      <c r="T8">
+        <v>1075987720.1199999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>179</v>
       </c>
@@ -9452,8 +9555,20 @@
         <f t="shared" si="3"/>
         <v>2.154766454044935E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" t="s">
+        <v>196</v>
+      </c>
+      <c r="S9">
+        <v>1535805611.8199997</v>
+      </c>
+      <c r="T9">
+        <v>1075987720.1199999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -9479,8 +9594,20 @@
         <f t="shared" si="3"/>
         <v>7.0147436417121543E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>175</v>
+      </c>
+      <c r="R10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S10">
+        <v>1488604013.21</v>
+      </c>
+      <c r="T10">
+        <v>1123191151.1199999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -9506,8 +9633,20 @@
         <f t="shared" si="3"/>
         <v>9.2968819824792524E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>175</v>
+      </c>
+      <c r="R11" t="s">
+        <v>196</v>
+      </c>
+      <c r="S11">
+        <v>1488604013.21</v>
+      </c>
+      <c r="T11">
+        <v>1123191151.1199999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -9533,8 +9672,20 @@
         <f t="shared" si="3"/>
         <v>-1.4693771749184141E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" t="s">
+        <v>195</v>
+      </c>
+      <c r="S12">
+        <v>1305852886.8399997</v>
+      </c>
+      <c r="T12">
+        <v>1305941269.1199999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>183</v>
       </c>
@@ -9560,8 +9711,20 @@
         <f t="shared" si="3"/>
         <v>1.2613334119050742E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>186</v>
+      </c>
+      <c r="R13" t="s">
+        <v>196</v>
+      </c>
+      <c r="S13">
+        <v>1305852886.8399997</v>
+      </c>
+      <c r="T13">
+        <v>1305941269.1199999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -9588,7 +9751,7 @@
         <v>7.9964409969655627E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>185</v>
       </c>
@@ -9701,11 +9864,11 @@
       </c>
       <c r="B21">
         <f>E6</f>
-        <v>1535805611.8199997</v>
+        <v>1233608328.1900001</v>
       </c>
       <c r="C21">
         <f>E7</f>
-        <v>1075987720.1199999</v>
+        <v>825515371.5999999</v>
       </c>
       <c r="D21">
         <f>F6</f>

--- a/use_cases/LWR_FT_2023/run/results.xlsx
+++ b/use_cases/LWR_FT_2023/run/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_FT_2023/run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90171983-B2F1-2744-B33D-2524D757544C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3E156-D1A8-C042-AA9F-46BB6006377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arma validation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
   <si>
     <t>Braidwood</t>
   </si>
@@ -446,12 +446,6 @@
     <t>covid</t>
   </si>
   <si>
-    <t>braidwood_capex_0.75</t>
-  </si>
-  <si>
-    <t>braidwood_capex_1.25</t>
-  </si>
-  <si>
     <t>braidwood_sweep</t>
   </si>
   <si>
@@ -461,12 +455,6 @@
     <t>nebraska</t>
   </si>
   <si>
-    <t>cooper_capex_0.75</t>
-  </si>
-  <si>
-    <t>cooper_capex_1.25</t>
-  </si>
-  <si>
     <t>cooper_sweep</t>
   </si>
   <si>
@@ -476,12 +464,6 @@
     <t>ohio</t>
   </si>
   <si>
-    <t>davis_besse_capex_0.75</t>
-  </si>
-  <si>
-    <t>davis_besse_capex_1.25</t>
-  </si>
-  <si>
     <t>davis_besse_sweep</t>
   </si>
   <si>
@@ -491,12 +473,6 @@
     <t>minnesota</t>
   </si>
   <si>
-    <t>prairie_island_capex_0.75</t>
-  </si>
-  <si>
-    <t>prairie_island_capex_1.25</t>
-  </si>
-  <si>
     <t>prairie_island_sweep</t>
   </si>
   <si>
@@ -506,12 +482,6 @@
     <t>west_south_central</t>
   </si>
   <si>
-    <t>stp_capex_0.75</t>
-  </si>
-  <si>
-    <t>stp_capex_1.25</t>
-  </si>
-  <si>
     <t>stp_sweep</t>
   </si>
   <si>
@@ -630,6 +600,18 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>h2_import_capacity</t>
+  </si>
+  <si>
+    <t>h2_export_capacity</t>
+  </si>
+  <si>
+    <t>% total revenues from PTC</t>
+  </si>
+  <si>
+    <t>% total cost for cO2</t>
   </si>
 </sst>
 </file>
@@ -858,7 +840,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -873,7 +855,6 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -885,6 +866,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -905,7 +889,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1029,19 +1014,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>20983988.333636161</c:v>
+                    <c:v>21033677.934552897</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>59328864.424743213</c:v>
+                    <c:v>59715548.340558067</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>488703.81705399998</c:v>
+                    <c:v>49325.395239999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1107963.5922518366</c:v>
+                    <c:v>1107938.389021104</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>237675596.92948309</c:v>
+                    <c:v>174310501.6662392</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1053,19 +1038,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>20983988.333636161</c:v>
+                    <c:v>21033677.934552897</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>59328864.424743213</c:v>
+                    <c:v>59715548.340558067</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>488703.81705399998</c:v>
+                    <c:v>49325.395239999998</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1107963.5922518366</c:v>
+                    <c:v>1107938.389021104</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>237675596.92948309</c:v>
+                    <c:v>174310501.6662392</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1114,19 +1099,19 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1026673178.2199998</c:v>
+                  <c:v>974521482.11999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>882568681.06000006</c:v>
+                  <c:v>761023865.84000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>595602343.78000021</c:v>
+                  <c:v>544202455.4000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>923016535.61800003</c:v>
+                  <c:v>910353321.898</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>356157446</c:v>
+                  <c:v>-223366239.48000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,63 +4154,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="20" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -4240,10 +4225,10 @@
       <c r="E3" s="7">
         <v>25.54626235988728</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>32.977089999999997</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>32.980620000000002</v>
       </c>
       <c r="H3" s="7">
@@ -4252,15 +4237,15 @@
       <c r="I3" s="7">
         <v>9.375560755254849</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>41.194870000000002</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>41.570810000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7">
@@ -4275,10 +4260,10 @@
       <c r="E4" s="7">
         <v>110.57936084123359</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>23.072469999999999</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>23.11992</v>
       </c>
       <c r="H4" s="7">
@@ -4287,15 +4272,15 @@
       <c r="I4" s="7">
         <v>15.06729275093023</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>290.6533</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>290.52300000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7">
@@ -4310,10 +4295,10 @@
       <c r="E5" s="7">
         <v>-65.109300000000005</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>2.27</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>2.27</v>
       </c>
       <c r="H5" s="7">
@@ -4322,15 +4307,15 @@
       <c r="I5" s="7">
         <v>-66.2</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>-20.2</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>-20.2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7">
@@ -4345,10 +4330,10 @@
       <c r="E6" s="7">
         <v>14.37777231055</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>22.72</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>22.64517</v>
       </c>
       <c r="H6" s="7">
@@ -4357,15 +4342,15 @@
       <c r="I6" s="7">
         <v>-0.57533928877825002</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>18.850000000000001</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>16.82328</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7">
@@ -4380,10 +4365,10 @@
       <c r="E7" s="7">
         <v>19.173366480049999</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>28.84</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>28.829719999999998</v>
       </c>
       <c r="H7" s="7">
@@ -4392,15 +4377,15 @@
       <c r="I7" s="7">
         <v>0.58024959424</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>23.93</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>24.394089999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7">
@@ -4415,10 +4400,10 @@
       <c r="E8" s="7">
         <v>27.222851138425</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>37</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>37.050960000000003</v>
       </c>
       <c r="H8" s="7">
@@ -4427,15 +4412,15 @@
       <c r="I8" s="7">
         <v>21.463601906800001</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>32.020000000000003</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>36.356409999999997</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7">
@@ -4450,10 +4435,10 @@
       <c r="E9" s="7">
         <v>4230.9575999999997</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>933.68</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>933.68</v>
       </c>
       <c r="H9" s="7">
@@ -4462,15 +4447,15 @@
       <c r="I9" s="7">
         <v>97</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>8996.83</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>8996.83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="7">
@@ -4485,10 +4470,10 @@
       <c r="E10" s="7">
         <v>749.96335094363985</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>243.29750000000001</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>241.2045</v>
       </c>
       <c r="H10" s="7">
@@ -4497,45 +4482,45 @@
       <c r="I10" s="7">
         <v>1.2223387323406909</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>699.61369999999999</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>696.71950000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>10.85681406844434</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>10.81196311074452</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>26.76559217679149</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>26.607204309125571</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>10.856809999999999</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>10.79345</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>1.292473562594213</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>1.297771260495596</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>25.769310000000001</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>25.698989999999998</v>
       </c>
     </row>
@@ -4556,8 +4541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4584,13 +4569,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
@@ -4668,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="8">
         <f>LOOKUP($B3,data!$A:$A,data!B:B)</f>
@@ -4678,21 +4663,21 @@
         <f>LOOKUP($B3,data!$A:$A,data!C:C)</f>
         <v>-985</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="21">
         <f>ABS(D3)*$C$16</f>
         <v>24.748743718592966</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="21">
         <f>LOOKUP($B3,data!$A:$A,data!D:D)/1000</f>
         <v>-24.756</v>
       </c>
       <c r="G3" s="7">
         <f>LOOKUP($B3,data!$A:$A,data!J:J)/1000</f>
-        <v>88.02</v>
-      </c>
-      <c r="H3" s="30">
+        <v>132.03</v>
+      </c>
+      <c r="H3" s="19">
         <f>G3/(24*E3)</f>
-        <v>0.14818934010152282</v>
+        <v>0.22228401015228424</v>
       </c>
       <c r="I3">
         <v>2102483898.8800001</v>
@@ -4701,32 +4686,32 @@
         <v>10442175</v>
       </c>
       <c r="K3">
-        <f>LOOKUP($B3,data!$A:$A,data!O:O)</f>
-        <v>3129157077.0999999</v>
+        <f>LOOKUP($B3,data!$A:$A,data!Q:Q)</f>
+        <v>3077005381</v>
       </c>
       <c r="L3">
-        <f>LOOKUP($B3,data!$A:$A,data!P:P)</f>
-        <v>1021235.95017</v>
+        <f>LOOKUP($B3,data!$A:$A,data!R:R)</f>
+        <v>1250952.8899999999</v>
       </c>
       <c r="M3">
         <f>K3-I3</f>
-        <v>1026673178.2199998</v>
+        <v>974521482.11999989</v>
       </c>
       <c r="N3">
         <f>SQRT(POWER(L3,2)+POWER(J3,2))</f>
-        <v>10491994.16681808</v>
+        <v>10516838.967276448</v>
       </c>
       <c r="O3" s="1">
         <f>M3</f>
-        <v>1026673178.2199998</v>
+        <v>974521482.11999989</v>
       </c>
       <c r="P3" s="1">
         <f>2*N3</f>
-        <v>20983988.333636161</v>
+        <v>21033677.934552897</v>
       </c>
       <c r="Q3" s="1">
         <f>O3/C3</f>
-        <v>860581.0379044424</v>
+        <v>816866.28844928741</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="5"/>
@@ -4754,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" s="8">
         <f>LOOKUP($B4,data!$A:$A,data!B:B)</f>
@@ -4762,23 +4747,23 @@
       </c>
       <c r="D4" s="8">
         <f>LOOKUP($B4,data!$A:$A,data!C:C)</f>
-        <v>-754</v>
-      </c>
-      <c r="E4" s="7">
+        <v>-680</v>
+      </c>
+      <c r="E4" s="21">
         <f>ABS(D4)*$C$16</f>
-        <v>18.944723618090453</v>
-      </c>
-      <c r="F4" s="7">
+        <v>17.085427135678394</v>
+      </c>
+      <c r="F4" s="21">
         <f>LOOKUP($B4,data!$A:$A,data!D:D)/1000</f>
-        <v>-18.951000000000001</v>
+        <v>-17.082999999999998</v>
       </c>
       <c r="G4" s="7">
         <f>LOOKUP($B4,data!$A:$A,data!J:J)/1000</f>
-        <v>8.4220000000000006</v>
-      </c>
-      <c r="H4" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H4" s="19">
         <f>G4/(24*E4)</f>
-        <v>1.8523187444739169E-2</v>
+        <v>2.4387254901960781E-5</v>
       </c>
       <c r="I4">
         <v>1058570571.16</v>
@@ -4787,32 +4772,32 @@
         <v>29664093.298599999</v>
       </c>
       <c r="K4">
-        <f>LOOKUP($B4,data!$A:$A,data!O:O)</f>
-        <v>1941139252.22</v>
+        <f>LOOKUP($B4,data!$A:$A,data!Q:Q)</f>
+        <v>1819594437</v>
       </c>
       <c r="L4">
-        <f>LOOKUP($B4,data!$A:$A,data!P:P)</f>
-        <v>141800.05058099999</v>
+        <f>LOOKUP($B4,data!$A:$A,data!R:R)</f>
+        <v>3395327.2560000001</v>
       </c>
       <c r="M4">
         <f>K4-I4</f>
-        <v>882568681.06000006</v>
+        <v>761023865.84000003</v>
       </c>
       <c r="N4">
         <f>SQRT(POWER(L4,2)+POWER(J4,2))</f>
-        <v>29664432.212371606</v>
+        <v>29857774.170279033</v>
       </c>
       <c r="O4" s="1">
         <f>M4</f>
-        <v>882568681.06000006</v>
+        <v>761023865.84000003</v>
       </c>
       <c r="P4" s="1">
         <f>2*N4</f>
-        <v>59328864.424743213</v>
+        <v>59715548.340558067</v>
       </c>
       <c r="Q4" s="1">
         <f>O4/C4</f>
-        <v>1147683.5904551367</v>
+        <v>989627.91396618995</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="5"/>
@@ -4840,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C5" s="8">
         <f>LOOKUP($B5,data!$A:$A,data!B:B)</f>
@@ -4850,21 +4835,21 @@
         <f>LOOKUP($B5,data!$A:$A,data!C:C)</f>
         <v>-879</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="21">
         <f>ABS(D5)*$C$16</f>
         <v>22.085427135678394</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="21">
         <f>LOOKUP($B5,data!$A:$A,data!D:D)/1000</f>
         <v>-22.091999999999999</v>
       </c>
       <c r="G5" s="7">
         <f>LOOKUP($B5,data!$A:$A,data!J:J)/1000</f>
-        <v>88.367000000000004</v>
-      </c>
-      <c r="H5" s="30">
+        <v>117.82299999999999</v>
+      </c>
+      <c r="H5" s="19">
         <f>G5/(24*E5)</f>
-        <v>0.16671438187334092</v>
+        <v>0.22228647136897989</v>
       </c>
       <c r="I5">
         <v>1765764570.5999999</v>
@@ -4873,32 +4858,32 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f>LOOKUP($B5,data!$A:$A,data!O:O)</f>
-        <v>2361366914.3800001</v>
+        <f>LOOKUP($B5,data!$A:$A,data!Q:Q)</f>
+        <v>2309967026</v>
       </c>
       <c r="L5">
-        <f>LOOKUP($B5,data!$A:$A,data!P:P)</f>
-        <v>244351.90852699999</v>
+        <f>LOOKUP($B5,data!$A:$A,data!R:R)</f>
+        <v>24662.697619999999</v>
       </c>
       <c r="M5">
         <f>K5-I5</f>
-        <v>595602343.78000021</v>
+        <v>544202455.4000001</v>
       </c>
       <c r="N5">
         <f>SQRT(POWER(L5,2)+POWER(J5,2))</f>
-        <v>244351.90852699999</v>
+        <v>24662.697619999999</v>
       </c>
       <c r="O5" s="1">
         <f>M5</f>
-        <v>595602343.78000021</v>
+        <v>544202455.4000001</v>
       </c>
       <c r="P5" s="1">
         <f>2*N5</f>
-        <v>488703.81705399998</v>
+        <v>49325.395239999998</v>
       </c>
       <c r="Q5" s="1">
         <f>O5/C5</f>
-        <v>666221.86105145433</v>
+        <v>608727.57874720369</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="5"/>
@@ -4926,7 +4911,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C6" s="8">
         <f>LOOKUP($B6,data!$A:$A,data!B:B)</f>
@@ -4936,21 +4921,21 @@
         <f>LOOKUP($B6,data!$A:$A,data!C:C)</f>
         <v>-507</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="21">
         <f>ABS(D6)*$C$16</f>
         <v>12.738693467336685</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="21">
         <f>LOOKUP($B6,data!$A:$A,data!D:D)/1000</f>
         <v>-12.743</v>
       </c>
       <c r="G6" s="7">
         <f>LOOKUP($B6,data!$A:$A,data!J:J)/1000</f>
-        <v>5.6639999999999997</v>
-      </c>
-      <c r="H6" s="30">
+        <v>33.981999999999999</v>
+      </c>
+      <c r="H6" s="19">
         <f>G6/(24*E6)</f>
-        <v>1.8526232741617354E-2</v>
+        <v>0.1111508547008547</v>
       </c>
       <c r="I6">
         <v>262400619.102</v>
@@ -4959,32 +4944,32 @@
         <v>553965.52426600002</v>
       </c>
       <c r="K6">
-        <f>LOOKUP($B6,data!$A:$A,data!O:O)</f>
-        <v>1185417154.72</v>
+        <f>LOOKUP($B6,data!$A:$A,data!Q:Q)</f>
+        <v>1172753941</v>
       </c>
       <c r="L6">
-        <f>LOOKUP($B6,data!$A:$A,data!P:P)</f>
-        <v>4245.9820529799999</v>
+        <f>LOOKUP($B6,data!$A:$A,data!R:R)</f>
+        <v>2016.5295349999999</v>
       </c>
       <c r="M6">
         <f>K6-I6</f>
-        <v>923016535.61800003</v>
+        <v>910353321.898</v>
       </c>
       <c r="N6">
         <f>SQRT(POWER(L6,2)+POWER(J6,2))</f>
-        <v>553981.79612591828</v>
+        <v>553969.19451055198</v>
       </c>
       <c r="O6" s="1">
         <f>M6</f>
-        <v>923016535.61800003</v>
+        <v>910353321.898</v>
       </c>
       <c r="P6" s="1">
         <f>2*N6</f>
-        <v>1107963.5922518366</v>
+        <v>1107938.389021104</v>
       </c>
       <c r="Q6" s="1">
         <f>O6/C6</f>
-        <v>1768230.911145594</v>
+        <v>1743971.8810306513</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="5"/>
@@ -5012,7 +4997,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C7" s="8">
         <f>LOOKUP($B7,data!$A:$A,data!B:B)</f>
@@ -5020,23 +5005,23 @@
       </c>
       <c r="D7" s="8">
         <f>LOOKUP($B7,data!$A:$A,data!C:C)</f>
-        <v>-185</v>
-      </c>
-      <c r="E7" s="7">
+        <v>-985</v>
+      </c>
+      <c r="E7" s="21">
         <f>ABS(D7)*$C$16</f>
-        <v>4.6482412060301508</v>
-      </c>
-      <c r="F7" s="7">
+        <v>24.748743718592966</v>
+      </c>
+      <c r="F7" s="21">
         <f>LOOKUP($B7,data!$A:$A,data!D:D)/1000</f>
-        <v>-24.756</v>
+        <v>-22.242999999999999</v>
       </c>
       <c r="G7" s="7">
         <f>LOOKUP($B7,data!$A:$A,data!J:J)/1000</f>
-        <v>5545.2460000000001</v>
-      </c>
-      <c r="H7" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="19">
         <f>G7/(24*E7)</f>
-        <v>49.707385315315314</v>
+        <v>1.6835871404399323E-5</v>
       </c>
       <c r="I7">
         <v>2742484812.48</v>
@@ -5045,32 +5030,32 @@
         <v>83894741.873400003</v>
       </c>
       <c r="K7">
-        <f>LOOKUP($B7,data!$A:$A,data!O:O)</f>
-        <v>3098642258.48</v>
+        <f>LOOKUP($B7,data!$A:$A,data!Q:Q)</f>
+        <v>2519118573</v>
       </c>
       <c r="L7">
-        <f>LOOKUP($B7,data!$A:$A,data!P:P)</f>
-        <v>84167063.807300001</v>
+        <f>LOOKUP($B7,data!$A:$A,data!R:R)</f>
+        <v>23615885.199999999</v>
       </c>
       <c r="M7">
         <f>K7-I7</f>
-        <v>356157446</v>
+        <v>-223366239.48000002</v>
       </c>
       <c r="N7">
         <f>SQRT(POWER(L7,2)+POWER(J7,2))</f>
-        <v>118837798.46474154</v>
+        <v>87155250.833119601</v>
       </c>
       <c r="O7" s="1">
         <f>M7</f>
-        <v>356157446</v>
+        <v>-223366239.48000002</v>
       </c>
       <c r="P7" s="1">
         <f>2*N7</f>
-        <v>237675596.92948309</v>
+        <v>174310501.6662392</v>
       </c>
       <c r="Q7" s="1">
         <f>O7/C7</f>
-        <v>278248.00468750001</v>
+        <v>-174504.87459375002</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="5"/>
@@ -5218,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5796,7 +5781,12 @@
       <c r="O9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>190</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -5851,7 +5841,14 @@
       <c r="O10" s="3">
         <v>1193</v>
       </c>
-      <c r="Q10" s="12"/>
+      <c r="P10">
+        <f>H10/SUM(H10,I10,J10,K10,L10)</f>
+        <v>0.78167281836467351</v>
+      </c>
+      <c r="Q10" s="33">
+        <f>G10/SUM(B10:G10)</f>
+        <v>0.2855228127358157</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -5906,7 +5903,14 @@
       <c r="O11" s="3">
         <v>769</v>
       </c>
-      <c r="Q11" s="12"/>
+      <c r="P11">
+        <f t="shared" ref="P11:P14" si="0">H11/SUM(H11,I11,J11,K11,L11)</f>
+        <v>0.76696460034902836</v>
+      </c>
+      <c r="Q11" s="33">
+        <f t="shared" ref="Q11:Q14" si="1">G11/SUM(B11:G11)</f>
+        <v>0.32405862406832026</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -5961,7 +5965,14 @@
       <c r="O12" s="3">
         <v>894</v>
       </c>
-      <c r="Q12" s="12"/>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0.73662650050144862</v>
+      </c>
+      <c r="Q12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.3582399572723477</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -6016,7 +6027,14 @@
       <c r="O13" s="3">
         <v>522</v>
       </c>
-      <c r="Q13" s="12"/>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>0.76242670307182991</v>
+      </c>
+      <c r="Q13" s="33">
+        <f t="shared" si="1"/>
+        <v>0.31418596732852405</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -6071,7 +6089,14 @@
       <c r="O14" s="3">
         <v>1280</v>
       </c>
-      <c r="Q14" s="12"/>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>0.72229381664525028</v>
+      </c>
+      <c r="Q14" s="33">
+        <f t="shared" si="1"/>
+        <v>0.48807933456014596</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -6096,8 +6121,14 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3">
+        <f>AVERAGE(P10:P14)</f>
+        <v>0.75399688778644613</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>AVERAGE(Q10:Q14)</f>
+        <v>0.35401733919303069</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -6111,55 +6142,55 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" ref="B16:N16" si="0">B9</f>
+        <f t="shared" ref="B16:N16" si="2">B9</f>
         <v>HTSE CAPEX</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>HTSE OM</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Cap Market</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>FT CAPEX</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>FT OM</v>
       </c>
       <c r="G16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CO2</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>H2 PTC</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Electricity sales</v>
       </c>
       <c r="J16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Naphta</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Diesel</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Jet fuel</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Storage CAPEX</v>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>BAU NPV</v>
       </c>
       <c r="O16" s="3"/>
@@ -6179,55 +6210,55 @@
         <v>Braidwood</v>
       </c>
       <c r="B17" s="11">
-        <f t="shared" ref="B17:N17" si="1">B10/$O10</f>
+        <f t="shared" ref="B17:N17" si="3">B10/$O10</f>
         <v>-553126.8164291702</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-419125.17183570832</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-237793.27242246439</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-217729.70326906958</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-193469.74266554904</v>
       </c>
       <c r="G17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-647889.61357921211</v>
       </c>
       <c r="H17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4006950.5959765296</v>
       </c>
       <c r="I17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>152.03772003352893</v>
       </c>
       <c r="J17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>242545.69991617769</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>278932.82145850797</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>597541.31181894382</v>
       </c>
       <c r="M17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.1911148365465216</v>
       </c>
       <c r="N17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1762350.2924392289</v>
       </c>
       <c r="O17" s="3"/>
@@ -6247,55 +6278,55 @@
         <v>Cooper</v>
       </c>
       <c r="B18" s="11">
-        <f t="shared" ref="B18:N18" si="2">B11/$O11</f>
+        <f t="shared" ref="B18:N18" si="4">B11/$O11</f>
         <v>-579586.98309492844</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-421811.55266579974</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-237782.28088426529</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-258735.22236671002</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-302197.61378413526</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-863007.31729518855</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3978814.4707412221</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>191.19765929778933</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>227785.84265279584</v>
       </c>
       <c r="K18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>347002.42912873864</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>633948.06111833546</v>
       </c>
       <c r="M18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.5019505851755524</v>
       </c>
       <c r="N18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1376554.7089206763</v>
       </c>
       <c r="O18" s="3"/>
@@ -6315,55 +6346,55 @@
         <v>Davis-Besse</v>
       </c>
       <c r="B19" s="11">
-        <f t="shared" ref="B19:N19" si="3">B12/$O12</f>
+        <f t="shared" ref="B19:N19" si="5">B12/$O12</f>
         <v>-591453.38366890384</v>
       </c>
       <c r="C19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-437315.95413870248</v>
       </c>
       <c r="D19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-237786.60514541387</v>
       </c>
       <c r="E19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-252853.09507829978</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-264433.06599552574</v>
       </c>
       <c r="G19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-995767.07270693511</v>
       </c>
       <c r="H19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3989837.3255033558</v>
       </c>
       <c r="I19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>257.88031319910516</v>
       </c>
       <c r="J19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>384648.35011185682</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>361865.51677852351</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>679755.01789709169</v>
       </c>
       <c r="M19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.592841163310962</v>
       </c>
       <c r="N19" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1975128.155033557</v>
       </c>
       <c r="O19" s="3"/>
@@ -6383,55 +6414,55 @@
         <v>Prairie-Island</v>
       </c>
       <c r="B20" s="11">
-        <f t="shared" ref="B20:N20" si="4">B13/$O13</f>
+        <f t="shared" ref="B20:N20" si="6">B13/$O13</f>
         <v>-590616.94827586203</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-412464.09578544059</v>
       </c>
       <c r="D20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-237767.64750957856</v>
       </c>
       <c r="E20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-294884.21072796936</v>
       </c>
       <c r="F20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-443235.20881226053</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-906607.3026819923</v>
       </c>
       <c r="H20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3941392.3122605365</v>
       </c>
       <c r="I20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8852.015325670498</v>
       </c>
       <c r="J20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>321981.70689655171</v>
       </c>
       <c r="K20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>329515.99042145594</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>567794.00574712642</v>
       </c>
       <c r="M20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-33524.904214559385</v>
       </c>
       <c r="N20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>502683.17835632182</v>
       </c>
       <c r="O20" s="3"/>
@@ -6451,55 +6482,55 @@
         <v>STP</v>
       </c>
       <c r="B21" s="11">
-        <f t="shared" ref="B21:N21" si="5">B14/$O14</f>
+        <f t="shared" ref="B21:N21" si="7">B14/$O14</f>
         <v>-574915.96484375</v>
       </c>
       <c r="C21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-430391.65546874999</v>
       </c>
       <c r="D21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-237794.62734375001</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-221802.75234375001</v>
       </c>
       <c r="F21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-184689.96953125001</v>
       </c>
       <c r="G21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1572769.51171875</v>
       </c>
       <c r="H21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4010361.7476562499</v>
       </c>
       <c r="I21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>183580.90156249999</v>
       </c>
       <c r="J21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>234962.76250000001</v>
       </c>
       <c r="K21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>408207.85234375001</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>715144.91015625</v>
       </c>
       <c r="M21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-156250</v>
       </c>
       <c r="N21" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2142566.2597500002</v>
       </c>
       <c r="O21" s="3"/>
@@ -6581,7 +6612,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+      <c r="P24" s="32"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -7226,7 +7257,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7673,10 +7704,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7685,97 +7716,103 @@
     <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="T1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="X1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AA1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AE1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B2">
@@ -7790,1323 +7827,463 @@
       <c r="E2">
         <v>-14.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J2">
-        <v>77017</v>
-      </c>
-      <c r="K2" t="s">
+        <v>132030</v>
+      </c>
+      <c r="K2" s="20">
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="L2" s="20">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="M2" t="s">
         <v>132</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>131</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>133</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>134</v>
       </c>
-      <c r="O2">
-        <v>3336092227.0700002</v>
-      </c>
-      <c r="P2">
-        <v>1983077.5942200001</v>
-      </c>
       <c r="Q2">
-        <v>3335944003.4299998</v>
+        <v>3077005381</v>
       </c>
       <c r="R2">
-        <v>3338354777.1599998</v>
+        <v>1250952.8899999999</v>
       </c>
       <c r="S2">
-        <v>3334126124.25</v>
+        <v>3076581548</v>
       </c>
       <c r="T2">
-        <v>3334222303.9699998</v>
+        <v>3078804133</v>
       </c>
       <c r="U2">
-        <v>3338169663.25</v>
+        <v>3076054296</v>
       </c>
       <c r="V2">
+        <v>3076086510</v>
+      </c>
+      <c r="W2">
+        <v>3078517620</v>
+      </c>
+      <c r="X2">
         <v>4</v>
       </c>
-      <c r="W2">
-        <v>3932596744690</v>
-      </c>
-      <c r="X2">
-        <v>64</v>
-      </c>
-      <c r="Y2">
-        <v>5.1726977069700003E-2</v>
+      <c r="Y2" s="20">
+        <v>1560000000000</v>
       </c>
       <c r="Z2">
-        <v>3.1933618888500001E-4</v>
+        <v>11</v>
       </c>
       <c r="AA2">
-        <v>0.111122894195</v>
-      </c>
-      <c r="AB2">
-        <v>5.5555555555600003E-2</v>
+        <v>3.42925E-4</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>4.1299999999999998E-14</v>
       </c>
       <c r="AC2">
-        <v>4.6198115829499997E-13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>136</v>
+        <v>0.111107698</v>
+      </c>
+      <c r="AD2">
+        <v>5.5555555999999999E-2</v>
+      </c>
+      <c r="AE2">
+        <v>5.5555555999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="B3">
-        <v>1193</v>
+        <v>769</v>
       </c>
       <c r="C3">
-        <v>-985</v>
+        <v>-680</v>
       </c>
       <c r="D3">
-        <v>-24756</v>
+        <v>-17083</v>
       </c>
       <c r="E3">
         <v>-14.9</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J3">
-        <v>11002</v>
-      </c>
-      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="20">
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="L3" s="20">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="M3" t="s">
         <v>132</v>
       </c>
-      <c r="L3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M3" t="s">
-        <v>133</v>
-      </c>
       <c r="N3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" t="s">
         <v>134</v>
       </c>
-      <c r="O3">
-        <v>2927999270.48</v>
-      </c>
-      <c r="P3">
-        <v>2252291.3544100001</v>
-      </c>
       <c r="Q3">
-        <v>2928483762.7199998</v>
+        <v>1819594437</v>
       </c>
       <c r="R3">
-        <v>2930184602.73</v>
+        <v>3395327.2560000001</v>
       </c>
       <c r="S3">
-        <v>2924844953.7399998</v>
+        <v>1821097713</v>
       </c>
       <c r="T3">
-        <v>2925374483.52</v>
+        <v>1821631815</v>
       </c>
       <c r="U3">
-        <v>2929945768.29</v>
+        <v>1814550504</v>
       </c>
       <c r="V3">
+        <v>1815459647</v>
+      </c>
+      <c r="W3">
+        <v>1821624639</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="W3">
-        <v>5072816345140</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>5.1726977069700003E-2</v>
+      <c r="Y3" s="20">
+        <v>11500000000000</v>
       </c>
       <c r="Z3">
-        <v>3.19191069053E-4</v>
+        <v>102</v>
       </c>
       <c r="AA3">
-        <v>0.111072395265</v>
+        <v>0.111360239</v>
       </c>
       <c r="AB3">
-        <v>5.5555555555600003E-2</v>
+        <v>0.111111111</v>
       </c>
       <c r="AC3">
-        <v>4.6198115829499997E-13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>137</v>
+        <v>5.5554106999999998E-2</v>
+      </c>
+      <c r="AD3" s="20">
+        <v>2.79E-14</v>
+      </c>
+      <c r="AE3">
+        <v>6.8739099999999998E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="B4">
-        <v>1193</v>
+        <v>894</v>
       </c>
       <c r="C4">
-        <v>-985</v>
+        <v>-879</v>
       </c>
       <c r="D4">
-        <v>-24756</v>
+        <v>-22092</v>
       </c>
       <c r="E4">
         <v>-14.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J4">
-        <v>88020</v>
-      </c>
-      <c r="K4" t="s">
+        <v>117823</v>
+      </c>
+      <c r="K4" s="20">
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="L4" s="20">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="M4" t="s">
         <v>132</v>
       </c>
-      <c r="L4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M4" t="s">
-        <v>133</v>
-      </c>
       <c r="N4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" t="s">
         <v>134</v>
       </c>
-      <c r="O4">
-        <v>3129157077.0999999</v>
-      </c>
-      <c r="P4">
-        <v>1021235.95017</v>
-      </c>
       <c r="Q4">
-        <v>3129193928.4299998</v>
+        <v>2309967026</v>
       </c>
       <c r="R4">
-        <v>3130347189.9299998</v>
+        <v>24662.697619999999</v>
       </c>
       <c r="S4">
-        <v>3127893261.6399999</v>
+        <v>2309974733</v>
       </c>
       <c r="T4">
-        <v>3128052793.23</v>
+        <v>2309985767</v>
       </c>
       <c r="U4">
-        <v>3130209769.1300001</v>
+        <v>2309932869</v>
       </c>
       <c r="V4">
+        <v>2309937694</v>
+      </c>
+      <c r="W4">
+        <v>2309985566</v>
+      </c>
+      <c r="X4">
         <v>4</v>
       </c>
-      <c r="W4">
-        <v>1042922865930</v>
-      </c>
-      <c r="X4">
-        <v>73</v>
-      </c>
       <c r="Y4">
-        <v>5.1726977069700003E-2</v>
+        <v>608248654</v>
       </c>
       <c r="Z4">
-        <v>3.1933618888500001E-4</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="AA4">
-        <v>0.111122894195</v>
+        <v>5.5415617E-2</v>
       </c>
       <c r="AB4">
-        <v>5.5555555555600003E-2</v>
+        <v>3.42061E-4</v>
       </c>
       <c r="AC4">
-        <v>4.6198115829499997E-13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>140</v>
+        <v>0.111107549</v>
+      </c>
+      <c r="AD4">
+        <v>11</v>
+      </c>
+      <c r="AE4" s="20">
+        <v>5.9499999999999999E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>769</v>
+        <v>522</v>
       </c>
       <c r="C5">
-        <v>-754</v>
+        <v>-507</v>
       </c>
       <c r="D5">
-        <v>-18951</v>
+        <v>-12743</v>
       </c>
       <c r="E5">
         <v>-14.9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J5">
-        <v>75802</v>
-      </c>
-      <c r="K5" t="s">
+        <v>33982</v>
+      </c>
+      <c r="K5" s="20">
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="L5" s="20">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="M5" t="s">
         <v>132</v>
       </c>
-      <c r="L5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" t="s">
-        <v>139</v>
-      </c>
       <c r="N5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" t="s">
         <v>134</v>
       </c>
-      <c r="O5">
-        <v>2107073824.25</v>
-      </c>
-      <c r="P5">
-        <v>489213.65802099998</v>
-      </c>
       <c r="Q5">
-        <v>2107275411.9100001</v>
+        <v>1172753941</v>
       </c>
       <c r="R5">
-        <v>2107394878.5</v>
+        <v>2016.5295349999999</v>
       </c>
       <c r="S5">
-        <v>2106349594.6700001</v>
+        <v>1172754138</v>
       </c>
       <c r="T5">
-        <v>2106478332.25</v>
+        <v>1172756136</v>
       </c>
       <c r="U5">
-        <v>2107387093.52</v>
+        <v>1172751353</v>
       </c>
       <c r="V5">
+        <v>1172751688</v>
+      </c>
+      <c r="W5">
+        <v>1172755919</v>
+      </c>
+      <c r="X5">
         <v>4</v>
       </c>
-      <c r="W5">
-        <v>239330003195</v>
-      </c>
-      <c r="X5">
-        <v>91</v>
-      </c>
       <c r="Y5">
-        <v>5.5555555555600003E-2</v>
+        <v>4066391.3670000001</v>
       </c>
       <c r="Z5">
-        <v>1.7071236352900001E-4</v>
+        <v>5.5545076999999998E-2</v>
       </c>
       <c r="AA5">
-        <v>5.55599535571E-2</v>
-      </c>
-      <c r="AB5">
-        <v>5.5306427503699997E-2</v>
+        <v>5.5687203999999997E-2</v>
+      </c>
+      <c r="AB5" s="20">
+        <v>7.3100000000000002E-13</v>
       </c>
       <c r="AC5">
-        <v>1.1730894620700001E-12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="AD5">
+        <v>3.4364500000000001E-4</v>
+      </c>
+      <c r="AE5">
+        <v>0.111098577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="B6">
-        <v>769</v>
+        <v>1280</v>
       </c>
       <c r="C6">
-        <v>-754</v>
+        <v>-985</v>
       </c>
       <c r="D6">
-        <v>-18951</v>
+        <v>-22243</v>
       </c>
       <c r="E6">
         <v>-14.9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="20">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J6">
-        <v>8422</v>
-      </c>
-      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="20">
+        <v>9.9999999999999997E+199</v>
+      </c>
+      <c r="L6" s="20">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="M6" t="s">
         <v>132</v>
       </c>
-      <c r="L6" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" t="s">
-        <v>139</v>
-      </c>
       <c r="N6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" t="s">
         <v>134</v>
       </c>
-      <c r="O6">
-        <v>1779039664.3299999</v>
-      </c>
-      <c r="P6">
-        <v>123410.82367899999</v>
-      </c>
       <c r="Q6">
-        <v>1779043416.78</v>
+        <v>2519118573</v>
       </c>
       <c r="R6">
-        <v>1779150445.02</v>
+        <v>23615885.199999999</v>
       </c>
       <c r="S6">
-        <v>1778921378.75</v>
+        <v>2526298656</v>
       </c>
       <c r="T6">
-        <v>1778924911.6600001</v>
+        <v>2554257344</v>
       </c>
       <c r="U6">
-        <v>1779149163.5699999</v>
+        <v>2478346555</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>2481978468</v>
       </c>
       <c r="W6">
-        <v>15230231401.200001</v>
+        <v>2547880238</v>
       </c>
       <c r="X6">
-        <v>11</v>
-      </c>
-      <c r="Y6">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z6">
-        <v>3.4124229874200001E-4</v>
+        <v>10</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>558000000000000</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>5.9100000000000002E-15</v>
       </c>
       <c r="AA6">
-        <v>0.111060534093</v>
+        <v>5.5555555999999999E-2</v>
       </c>
       <c r="AB6">
-        <v>5.5306427503699997E-2</v>
+        <v>5.5555040999999999E-2</v>
       </c>
       <c r="AC6">
-        <v>1.1730894620700001E-12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7">
-        <v>769</v>
-      </c>
-      <c r="C7">
-        <v>-754</v>
-      </c>
-      <c r="D7">
-        <v>-18951</v>
-      </c>
-      <c r="E7">
-        <v>-14.9</v>
-      </c>
-      <c r="F7">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G7">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H7">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I7">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J7">
-        <v>8422</v>
-      </c>
-      <c r="K7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" t="s">
-        <v>139</v>
-      </c>
-      <c r="N7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O7">
-        <v>1941139252.22</v>
-      </c>
-      <c r="P7">
-        <v>141800.05058099999</v>
-      </c>
-      <c r="Q7">
-        <v>1941202502.8699999</v>
-      </c>
-      <c r="R7">
-        <v>1941224855.4200001</v>
-      </c>
-      <c r="S7">
-        <v>1940927147.71</v>
-      </c>
-      <c r="T7">
-        <v>1940968232.5899999</v>
-      </c>
-      <c r="U7">
-        <v>1941221720.9300001</v>
-      </c>
-      <c r="V7">
-        <v>4</v>
-      </c>
-      <c r="W7">
-        <v>20107254344.799999</v>
-      </c>
-      <c r="X7">
-        <v>11</v>
-      </c>
-      <c r="Y7">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z7">
-        <v>3.4124229874200001E-4</v>
-      </c>
-      <c r="AA7">
-        <v>0.111060534093</v>
-      </c>
-      <c r="AB7">
-        <v>5.5306427503699997E-2</v>
-      </c>
-      <c r="AC7">
-        <v>1.1730894620700001E-12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8">
-        <v>894</v>
-      </c>
-      <c r="C8">
-        <v>-879</v>
-      </c>
-      <c r="D8">
-        <v>-22092</v>
-      </c>
-      <c r="E8">
-        <v>-14.9</v>
-      </c>
-      <c r="F8">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G8">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H8">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I8">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J8">
-        <v>88367</v>
-      </c>
-      <c r="K8" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8">
-        <v>2559932748.4000001</v>
-      </c>
-      <c r="P8">
-        <v>237093.99627599999</v>
-      </c>
-      <c r="Q8">
-        <v>2559903677.4499998</v>
-      </c>
-      <c r="R8">
-        <v>2560244307.3299999</v>
-      </c>
-      <c r="S8">
-        <v>2559679331.3499999</v>
-      </c>
-      <c r="T8">
-        <v>2559705002.6999998</v>
-      </c>
-      <c r="U8">
-        <v>2560201193.4099998</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8">
-        <v>56213563070.300003</v>
-      </c>
-      <c r="X8">
-        <v>91</v>
-      </c>
-      <c r="Y8">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z8">
-        <v>1.71045534016E-4</v>
-      </c>
-      <c r="AA8">
-        <v>5.5558699367299999E-2</v>
-      </c>
-      <c r="AB8">
-        <v>5.5415617128500003E-2</v>
-      </c>
-      <c r="AC8">
-        <v>7.1438172031400004E-13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9">
-        <v>894</v>
-      </c>
-      <c r="C9">
-        <v>-879</v>
-      </c>
-      <c r="D9">
-        <v>-22092</v>
-      </c>
-      <c r="E9">
-        <v>-14.9</v>
-      </c>
-      <c r="F9">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G9">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H9">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I9">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J9">
-        <v>9819</v>
-      </c>
-      <c r="K9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" t="s">
-        <v>143</v>
-      </c>
-      <c r="M9" t="s">
-        <v>144</v>
-      </c>
-      <c r="N9" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9">
-        <v>2167991412.73</v>
-      </c>
-      <c r="P9">
-        <v>16160.8683843</v>
-      </c>
-      <c r="Q9">
-        <v>2167989637.0799999</v>
-      </c>
-      <c r="R9">
-        <v>2168012793.6900001</v>
-      </c>
-      <c r="S9">
-        <v>2167973583.0900002</v>
-      </c>
-      <c r="T9">
-        <v>2167975834.8099999</v>
-      </c>
-      <c r="U9">
-        <v>2168009476.5799999</v>
-      </c>
-      <c r="V9">
-        <v>4</v>
-      </c>
-      <c r="W9">
-        <v>261173666.935</v>
-      </c>
-      <c r="X9">
-        <v>11</v>
-      </c>
-      <c r="Y9">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z9">
-        <v>3.4193427338999999E-4</v>
-      </c>
-      <c r="AA9">
-        <v>0.11106646898399999</v>
-      </c>
-      <c r="AB9">
-        <v>5.5415617128500003E-2</v>
-      </c>
-      <c r="AC9">
-        <v>7.1438172031400004E-13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10">
-        <v>894</v>
-      </c>
-      <c r="C10">
-        <v>-879</v>
-      </c>
-      <c r="D10">
-        <v>-22092</v>
-      </c>
-      <c r="E10">
-        <v>-14.9</v>
-      </c>
-      <c r="F10">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G10">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H10">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I10">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J10">
-        <v>88367</v>
-      </c>
-      <c r="K10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M10" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10">
-        <v>2361366914.3800001</v>
-      </c>
-      <c r="P10">
-        <v>244351.90852699999</v>
-      </c>
-      <c r="Q10">
-        <v>2361386587.27</v>
-      </c>
-      <c r="R10">
-        <v>2361589985.27</v>
-      </c>
-      <c r="S10">
-        <v>2361104497.73</v>
-      </c>
-      <c r="T10">
-        <v>2361120889.6999998</v>
-      </c>
-      <c r="U10">
-        <v>2361585397.0300002</v>
-      </c>
-      <c r="V10">
-        <v>4</v>
-      </c>
-      <c r="W10">
-        <v>59707855200.599998</v>
-      </c>
-      <c r="X10">
-        <v>91</v>
-      </c>
-      <c r="Y10">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z10">
-        <v>1.71045534016E-4</v>
-      </c>
-      <c r="AA10">
-        <v>5.5558699367299999E-2</v>
-      </c>
-      <c r="AB10">
-        <v>5.5415617128500003E-2</v>
-      </c>
-      <c r="AC10">
-        <v>7.1438172031400004E-13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11">
-        <v>522</v>
-      </c>
-      <c r="C11">
-        <v>-507</v>
-      </c>
-      <c r="D11">
-        <v>-12743</v>
-      </c>
-      <c r="E11">
-        <v>-14.9</v>
-      </c>
-      <c r="F11">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G11">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H11">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I11">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J11">
-        <v>5664</v>
-      </c>
-      <c r="K11" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" t="s">
-        <v>149</v>
-      </c>
-      <c r="N11" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11">
-        <v>1301597085.5999999</v>
-      </c>
-      <c r="P11">
-        <v>6488.9017495099997</v>
-      </c>
-      <c r="Q11">
-        <v>1301598903.23</v>
-      </c>
-      <c r="R11">
-        <v>1301602273.9100001</v>
-      </c>
-      <c r="S11">
-        <v>1301588262.03</v>
-      </c>
-      <c r="T11">
-        <v>1301589448.3</v>
-      </c>
-      <c r="U11">
-        <v>1301602178.23</v>
-      </c>
-      <c r="V11">
-        <v>4</v>
-      </c>
-      <c r="W11">
-        <v>42105845.914800003</v>
-      </c>
-      <c r="X11">
-        <v>11</v>
-      </c>
-      <c r="Y11">
-        <v>5.5545077329300002E-2</v>
-      </c>
-      <c r="Z11">
-        <v>3.4343045102700002E-4</v>
-      </c>
-      <c r="AA11">
-        <v>0.111029354054</v>
-      </c>
-      <c r="AB11">
-        <v>5.5687203791500002E-2</v>
-      </c>
-      <c r="AC11">
-        <v>4.3848457759400013E-12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12">
-        <v>522</v>
-      </c>
-      <c r="C12">
-        <v>-507</v>
-      </c>
-      <c r="D12">
-        <v>-12743</v>
-      </c>
-      <c r="E12">
-        <v>-14.9</v>
-      </c>
-      <c r="F12">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G12">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H12">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I12">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J12">
-        <v>5664</v>
-      </c>
-      <c r="K12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" t="s">
-        <v>149</v>
-      </c>
-      <c r="N12" t="s">
-        <v>134</v>
-      </c>
-      <c r="O12">
-        <v>1069236981.72</v>
-      </c>
-      <c r="P12">
-        <v>5965.3522204800001</v>
-      </c>
-      <c r="Q12">
-        <v>1069237017.4400001</v>
-      </c>
-      <c r="R12">
-        <v>1069243629.74</v>
-      </c>
-      <c r="S12">
-        <v>1069230262.28</v>
-      </c>
-      <c r="T12">
-        <v>1069230833.03</v>
-      </c>
-      <c r="U12">
-        <v>1069243080.41</v>
-      </c>
-      <c r="V12">
-        <v>4</v>
-      </c>
-      <c r="W12">
-        <v>35585427.114399999</v>
-      </c>
-      <c r="X12">
-        <v>11</v>
-      </c>
-      <c r="Y12">
-        <v>5.5545077329300002E-2</v>
-      </c>
-      <c r="Z12">
-        <v>3.4343045102700002E-4</v>
-      </c>
-      <c r="AA12">
-        <v>0.111029354054</v>
-      </c>
-      <c r="AB12">
-        <v>5.5687203791500002E-2</v>
-      </c>
-      <c r="AC12">
-        <v>4.3848457759400013E-12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13">
-        <v>522</v>
-      </c>
-      <c r="C13">
-        <v>-507</v>
-      </c>
-      <c r="D13">
-        <v>-12743</v>
-      </c>
-      <c r="E13">
-        <v>-14.9</v>
-      </c>
-      <c r="F13">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G13">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H13">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I13">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J13">
-        <v>5664</v>
-      </c>
-      <c r="K13" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" t="s">
-        <v>149</v>
-      </c>
-      <c r="N13" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13">
-        <v>1185417154.72</v>
-      </c>
-      <c r="P13">
-        <v>4245.9820529799999</v>
-      </c>
-      <c r="Q13">
-        <v>1185415958.3099999</v>
-      </c>
-      <c r="R13">
-        <v>1185423186.8599999</v>
-      </c>
-      <c r="S13">
-        <v>1185413515.3900001</v>
-      </c>
-      <c r="T13">
-        <v>1185413748.05</v>
-      </c>
-      <c r="U13">
-        <v>1185422236.3599999</v>
-      </c>
-      <c r="V13">
-        <v>4</v>
-      </c>
-      <c r="W13">
-        <v>18028363.5942</v>
-      </c>
-      <c r="X13">
-        <v>11</v>
-      </c>
-      <c r="Y13">
-        <v>5.5545077329300002E-2</v>
-      </c>
-      <c r="Z13">
-        <v>3.4343045102700002E-4</v>
-      </c>
-      <c r="AA13">
-        <v>0.111029354054</v>
-      </c>
-      <c r="AB13">
-        <v>5.5687203791500002E-2</v>
-      </c>
-      <c r="AC13">
-        <v>4.3848457759400013E-12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14">
-        <v>1280</v>
-      </c>
-      <c r="C14">
-        <v>-185</v>
-      </c>
-      <c r="D14">
-        <v>-24756</v>
-      </c>
-      <c r="E14">
-        <v>-14.9</v>
-      </c>
-      <c r="F14">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G14">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H14">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I14">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J14">
-        <v>5545246</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" t="s">
-        <v>153</v>
-      </c>
-      <c r="M14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N14" t="s">
-        <v>134</v>
-      </c>
-      <c r="O14">
-        <v>3800558409.5300002</v>
-      </c>
-      <c r="P14">
-        <v>83871384.113399997</v>
-      </c>
-      <c r="Q14">
-        <v>3783027261.9200001</v>
-      </c>
-      <c r="R14">
-        <v>3957928786.75</v>
-      </c>
-      <c r="S14">
-        <v>3695431083.1700001</v>
-      </c>
-      <c r="T14">
-        <v>3711302425.6799998</v>
-      </c>
-      <c r="U14">
-        <v>3925823652.4000001</v>
-      </c>
-      <c r="V14">
-        <v>10</v>
-      </c>
-      <c r="W14">
-        <v>7034409073090000</v>
-      </c>
-      <c r="X14">
-        <v>69</v>
-      </c>
-      <c r="Y14">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z14">
-        <v>6.8587212819100005E-4</v>
-      </c>
-      <c r="AA14">
-        <v>0.111111284767</v>
-      </c>
-      <c r="AB14">
-        <v>0.111111111111</v>
-      </c>
-      <c r="AC14">
-        <v>5.9062379305599996E-15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15">
-        <v>1280</v>
-      </c>
-      <c r="C15">
-        <v>-885</v>
-      </c>
-      <c r="D15">
-        <v>-24756</v>
-      </c>
-      <c r="E15">
-        <v>-14.9</v>
-      </c>
-      <c r="F15">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G15">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H15">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I15">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J15">
-        <v>924208</v>
-      </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" t="s">
-        <v>153</v>
-      </c>
-      <c r="M15" t="s">
-        <v>154</v>
-      </c>
-      <c r="N15" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15">
-        <v>2431731991.6100001</v>
-      </c>
-      <c r="P15">
-        <v>18753758.034000002</v>
-      </c>
-      <c r="Q15">
-        <v>2431035910.5</v>
-      </c>
-      <c r="R15">
-        <v>2458018776.3000002</v>
-      </c>
-      <c r="S15">
-        <v>2400215198.6500001</v>
-      </c>
-      <c r="T15">
-        <v>2406824208.23</v>
-      </c>
-      <c r="U15">
-        <v>2455842868.29</v>
-      </c>
-      <c r="V15">
-        <v>10</v>
-      </c>
-      <c r="W15">
-        <v>351703440399000</v>
-      </c>
-      <c r="X15">
-        <v>12</v>
-      </c>
-      <c r="Y15">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z15">
-        <v>6.8586804653700002E-4</v>
-      </c>
-      <c r="AA15">
-        <v>0.111110623539</v>
-      </c>
-      <c r="AB15">
-        <v>0.111111111111</v>
-      </c>
-      <c r="AC15">
-        <v>5.9062379305599996E-15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16">
-        <v>1280</v>
-      </c>
-      <c r="C16">
-        <v>-185</v>
-      </c>
-      <c r="D16">
-        <v>-24756</v>
-      </c>
-      <c r="E16">
-        <v>-14.9</v>
-      </c>
-      <c r="F16">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="G16">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="H16">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="I16">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="J16">
-        <v>5545246</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16">
-        <v>3098642258.48</v>
-      </c>
-      <c r="P16">
-        <v>84167063.807300001</v>
-      </c>
-      <c r="Q16">
-        <v>3117591964.02</v>
-      </c>
-      <c r="R16">
-        <v>3243056165.0599999</v>
-      </c>
-      <c r="S16">
-        <v>2931314128.54</v>
-      </c>
-      <c r="T16">
-        <v>2972276397.7600002</v>
-      </c>
-      <c r="U16">
-        <v>3207143107.9299998</v>
-      </c>
-      <c r="V16">
-        <v>10</v>
-      </c>
-      <c r="W16">
-        <v>7084094629940000</v>
-      </c>
-      <c r="X16">
-        <v>69</v>
-      </c>
-      <c r="Y16">
-        <v>5.5555555555600003E-2</v>
-      </c>
-      <c r="Z16">
-        <v>6.8587212819100005E-4</v>
-      </c>
-      <c r="AA16">
-        <v>0.111111284767</v>
-      </c>
-      <c r="AB16">
-        <v>0.111111111111</v>
-      </c>
-      <c r="AC16">
-        <v>5.9062379305599996E-15</v>
+        <v>101</v>
+      </c>
+      <c r="AD6">
+        <v>3.42932E-4</v>
+      </c>
+      <c r="AE6">
+        <v>0.111111111</v>
       </c>
     </row>
   </sheetData>
@@ -9133,40 +8310,40 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="M1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="N1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
         <v>28</v>
@@ -9175,15 +8352,15 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="T1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>2102483898.8800001</v>
@@ -9208,7 +8385,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K2">
         <v>972148741.11999989</v>
@@ -9226,7 +8403,7 @@
         <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S2">
         <v>-961918169.88000011</v>
@@ -9237,7 +8414,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>3129157077.0999999</v>
@@ -9262,7 +8439,7 @@
         <v>1.0170885706250531E-2</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="K3">
         <v>1535805611.8199999</v>
@@ -9280,7 +8457,7 @@
         <v>72</v>
       </c>
       <c r="R3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S3">
         <v>-961918169.88000011</v>
@@ -9291,7 +8468,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>3074632640</v>
@@ -9316,7 +8493,7 @@
         <v>1.0741335212005283E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K4">
         <v>895251155.11999989</v>
@@ -9331,10 +8508,10 @@
         <v>10442175.505490299</v>
       </c>
       <c r="Q4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="R4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S4">
         <v>895251155.11999989</v>
@@ -9345,7 +8522,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B5">
         <v>3742129513.6399999</v>
@@ -9370,7 +8547,7 @@
         <v>6.3685563983665594E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K5">
         <v>1488604013.21</v>
@@ -9385,10 +8562,10 @@
         <v>10442175.57572766</v>
       </c>
       <c r="Q5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="R5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S5">
         <v>895251155.11999989</v>
@@ -9399,7 +8576,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>3336092227.0700002</v>
@@ -9439,10 +8616,10 @@
         <v>10442175.528010551</v>
       </c>
       <c r="Q6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R6" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S6">
         <v>972148741.11999989</v>
@@ -9453,7 +8630,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B7">
         <v>2927999270.48</v>
@@ -9478,10 +8655,10 @@
         <v>1.2649280579076208E-2</v>
       </c>
       <c r="Q7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S7">
         <v>972148741.11999989</v>
@@ -9492,7 +8669,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <v>2997735054</v>
@@ -9517,10 +8694,10 @@
         <v>1.1663962043322037E-2</v>
       </c>
       <c r="Q8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="R8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S8">
         <v>1535805611.8199997</v>
@@ -9531,7 +8708,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>2587092125.7199998</v>
@@ -9556,10 +8733,10 @@
         <v>2.154766454044935E-2</v>
       </c>
       <c r="Q9" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="R9" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S9">
         <v>1535805611.8199997</v>
@@ -9570,7 +8747,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B10">
         <v>3591087912.0900002</v>
@@ -9595,10 +8772,10 @@
         <v>7.0147436417121543E-3</v>
       </c>
       <c r="Q10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="R10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S10">
         <v>1488604013.21</v>
@@ -9609,7 +8786,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B11">
         <v>3225675050</v>
@@ -9634,10 +8811,10 @@
         <v>9.2968819824792524E-3</v>
       </c>
       <c r="Q11" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="R11" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S11">
         <v>1488604013.21</v>
@@ -9648,7 +8825,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <v>1140565729</v>
@@ -9673,10 +8850,10 @@
         <v>-1.4693771749184141E-2</v>
       </c>
       <c r="Q12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="R12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S12">
         <v>1305852886.8399997</v>
@@ -9687,7 +8864,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <v>2930351886</v>
@@ -9712,10 +8889,10 @@
         <v>1.2613334119050742E-2</v>
       </c>
       <c r="Q13" t="s">
+        <v>176</v>
+      </c>
+      <c r="R13" t="s">
         <v>186</v>
-      </c>
-      <c r="R13" t="s">
-        <v>196</v>
       </c>
       <c r="S13">
         <v>1305852886.8399997</v>
@@ -9726,7 +8903,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B14">
         <v>3408336785.7199998</v>
@@ -9753,7 +8930,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B15">
         <v>3408425168</v>
@@ -9783,16 +8960,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9818,7 +8995,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B19">
         <f>E8</f>
@@ -9839,7 +9016,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <f>E4</f>
@@ -9860,7 +9037,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B21">
         <f>E6</f>
@@ -9881,7 +9058,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B22">
         <f>E10</f>
@@ -9902,7 +9079,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B23">
         <f>E14</f>
@@ -9942,18 +9119,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B2">
         <v>2102483898.8800001</v>
@@ -9964,27 +9141,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B5">
         <v>3408381162.0100002</v>
@@ -10006,7 +9183,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B6">
         <v>610618098.39999998</v>
@@ -10028,7 +9205,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B7">
         <v>1140565729</v>
@@ -10050,7 +9227,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>2930351886</v>
@@ -10072,10 +9249,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/use_cases/LWR_FT_2023/run/results.xlsx
+++ b/use_cases/LWR_FT_2023/run/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_FT_2023/run/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F3E156-D1A8-C042-AA9F-46BB6006377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC338F-EDCC-0548-8EEB-5716155597F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arma validation" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
   <si>
     <t>Braidwood</t>
   </si>
@@ -173,111 +173,27 @@
     <t>npv</t>
   </si>
   <si>
-    <t>htseCAPEX</t>
-  </si>
-  <si>
-    <t>htseFOM</t>
-  </si>
-  <si>
-    <t>htseVOM</t>
-  </si>
-  <si>
-    <t>htseELEC_CAP_MARKET</t>
-  </si>
-  <si>
-    <t>htse_amortize_htseCAPEX</t>
-  </si>
-  <si>
-    <t>htse_depreciate_htseCAPEX</t>
-  </si>
-  <si>
-    <t>ftCAPEX</t>
-  </si>
-  <si>
-    <t>ftFOM</t>
-  </si>
-  <si>
-    <t>ftVOM</t>
-  </si>
-  <si>
     <t>co2_shipping</t>
   </si>
   <si>
     <t>h2_ptc</t>
   </si>
   <si>
-    <t>ft_amortize_ftCAPEX</t>
-  </si>
-  <si>
-    <t>ft_depreciate_ftCAPEX</t>
-  </si>
-  <si>
-    <t>ftELEC_CAP_MARKET</t>
-  </si>
-  <si>
-    <t>e_sales</t>
-  </si>
-  <si>
-    <t>naphtha_sales</t>
-  </si>
-  <si>
-    <t>diesel_sales</t>
-  </si>
-  <si>
-    <t>jet_fuel_sales</t>
-  </si>
-  <si>
-    <t>storageCAPEX</t>
-  </si>
-  <si>
-    <t>$ h2 ptc/MWe</t>
-  </si>
-  <si>
-    <t>$ co2/MWe</t>
-  </si>
-  <si>
     <t>STP</t>
   </si>
   <si>
-    <t>HTSE CAPEX</t>
-  </si>
-  <si>
-    <t>HTSE OM</t>
-  </si>
-  <si>
-    <t>Cap Market</t>
-  </si>
-  <si>
-    <t>FT CAPEX</t>
-  </si>
-  <si>
-    <t>FT OM</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
     <t>H2 PTC</t>
   </si>
   <si>
-    <t>Electricity sales</t>
-  </si>
-  <si>
-    <t>Naphta</t>
-  </si>
-  <si>
     <t>Diesel</t>
   </si>
   <si>
     <t>Jet fuel</t>
   </si>
   <si>
-    <t>Storage CAPEX</t>
-  </si>
-  <si>
-    <t>BAU NPV</t>
-  </si>
-  <si>
     <t>Yearly average production/consumption</t>
   </si>
   <si>
@@ -608,10 +524,46 @@
     <t>h2_export_capacity</t>
   </si>
   <si>
-    <t>% total revenues from PTC</t>
-  </si>
-  <si>
-    <t>% total cost for cO2</t>
+    <t>capex</t>
+  </si>
+  <si>
+    <t>om</t>
+  </si>
+  <si>
+    <t>electricity_market</t>
+  </si>
+  <si>
+    <t>naphtha_market</t>
+  </si>
+  <si>
+    <t>jet_fuel</t>
+  </si>
+  <si>
+    <t>diesel_market</t>
+  </si>
+  <si>
+    <t>elec_cap</t>
+  </si>
+  <si>
+    <t>Jet Fuel</t>
+  </si>
+  <si>
+    <t>Capacity market</t>
+  </si>
+  <si>
+    <t>Normalized cashflows ($/MWe)</t>
+  </si>
+  <si>
+    <t>Percentage Revenues</t>
+  </si>
+  <si>
+    <t>Synfuel</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage Costs</t>
   </si>
 </sst>
 </file>
@@ -624,7 +576,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -642,13 +594,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,18 +618,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -840,7 +779,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -852,23 +791,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -889,8 +827,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1305,875 +1245,6 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cashflow_comparison!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Braidwood</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>cashflow_comparison!$B$16:$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>HTSE CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HTSE OM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cap Market</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FT CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FT OM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H2 PTC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electricity sales</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Naphta</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Jet fuel</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Storage CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>BAU NPV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cashflow_comparison!$B$17:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-553126.8164291702</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-419125.17183570832</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-237793.27242246439</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-217729.70326906958</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-193469.74266554904</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-647889.61357921211</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4006950.5959765296</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>152.03772003352893</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>242545.69991617769</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>278932.82145850797</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>597541.31181894382</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.1911148365465216</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1762350.2924392289</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D5E-BD40-954F-A9FD2D9AD3A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cashflow_comparison!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cooper</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>cashflow_comparison!$B$16:$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>HTSE CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HTSE OM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cap Market</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FT CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FT OM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H2 PTC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electricity sales</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Naphta</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Jet fuel</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Storage CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>BAU NPV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cashflow_comparison!$B$18:$N$18</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-579586.98309492844</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-421811.55266579974</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-237782.28088426529</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-258735.22236671002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-302197.61378413526</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-863007.31729518855</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3978814.4707412221</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>191.19765929778933</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>227785.84265279584</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>347002.42912873864</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>633948.06111833546</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-6.5019505851755524</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1376554.7089206763</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D5E-BD40-954F-A9FD2D9AD3A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cashflow_comparison!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Davis-Besse</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>cashflow_comparison!$B$16:$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>HTSE CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HTSE OM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cap Market</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FT CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FT OM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H2 PTC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electricity sales</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Naphta</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Jet fuel</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Storage CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>BAU NPV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cashflow_comparison!$B$19:$N$19</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-591453.38366890384</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-437315.95413870248</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-237786.60514541387</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-252853.09507829978</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-264433.06599552574</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-995767.07270693511</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3989837.3255033558</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>257.88031319910516</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>384648.35011185682</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>361865.51677852351</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>679755.01789709169</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-5.592841163310962</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1975128.155033557</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D5E-BD40-954F-A9FD2D9AD3A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cashflow_comparison!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Prairie-Island</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>cashflow_comparison!$B$16:$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>HTSE CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HTSE OM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cap Market</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FT CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FT OM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H2 PTC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electricity sales</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Naphta</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Jet fuel</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Storage CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>BAU NPV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cashflow_comparison!$B$20:$N$20</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-590616.94827586203</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-412464.09578544059</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-237767.64750957856</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-294884.21072796936</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-443235.20881226053</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-906607.3026819923</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3941392.3122605365</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8852.015325670498</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>321981.70689655171</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>329515.99042145594</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>567794.00574712642</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-33524.904214559385</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>502683.17835632182</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0D5E-BD40-954F-A9FD2D9AD3A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>cashflow_comparison!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>STP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>cashflow_comparison!$B$16:$N$16</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>HTSE CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HTSE OM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cap Market</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>FT CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>FT OM</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CO2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>H2 PTC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Electricity sales</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Naphta</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Diesel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Jet fuel</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Storage CAPEX</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>BAU NPV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>cashflow_comparison!$B$21:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>-574915.96484375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-430391.65546874999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-237794.62734375001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-221802.75234375001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-184689.96953125001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1572769.51171875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4010361.7476562499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>183580.90156249999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>234962.76250000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>408207.85234375001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>715144.91015625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-156250</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2142566.2597500002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0D5E-BD40-954F-A9FD2D9AD3A1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="300"/>
-        <c:axId val="1547099967"/>
-        <c:axId val="1546879023"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1547099967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546879023"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1546879023"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000">
-                        <a:lumOff val="35000"/>
-                        <a:lumMod val="65000"/>
-                      </a:sysClr>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>NPV $M USD (2020)/ MW</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1547099967"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-        </c:dispUnits>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
@@ -2521,7 +1592,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2872,7 +1943,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3222,7 +2293,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3651,47 +2722,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -3765,7 +2795,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4154,63 +3184,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="23"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
@@ -4225,10 +3255,10 @@
       <c r="E3" s="7">
         <v>25.54626235988728</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="11">
         <v>32.977089999999997</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="11">
         <v>32.980620000000002</v>
       </c>
       <c r="H3" s="7">
@@ -4237,15 +3267,15 @@
       <c r="I3" s="7">
         <v>9.375560755254849</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>41.194870000000002</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="12">
         <v>41.570810000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7">
@@ -4260,10 +3290,10 @@
       <c r="E4" s="7">
         <v>110.57936084123359</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>23.072469999999999</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>23.11992</v>
       </c>
       <c r="H4" s="7">
@@ -4272,15 +3302,15 @@
       <c r="I4" s="7">
         <v>15.06729275093023</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>290.6533</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>290.52300000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7">
@@ -4295,10 +3325,10 @@
       <c r="E5" s="7">
         <v>-65.109300000000005</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>2.27</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="11">
         <v>2.27</v>
       </c>
       <c r="H5" s="7">
@@ -4307,15 +3337,15 @@
       <c r="I5" s="7">
         <v>-66.2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>-20.2</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="12">
         <v>-20.2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7">
@@ -4330,10 +3360,10 @@
       <c r="E6" s="7">
         <v>14.37777231055</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="11">
         <v>22.72</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>22.64517</v>
       </c>
       <c r="H6" s="7">
@@ -4342,15 +3372,15 @@
       <c r="I6" s="7">
         <v>-0.57533928877825002</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>18.850000000000001</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="12">
         <v>16.82328</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7">
@@ -4365,10 +3395,10 @@
       <c r="E7" s="7">
         <v>19.173366480049999</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <v>28.84</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <v>28.829719999999998</v>
       </c>
       <c r="H7" s="7">
@@ -4377,15 +3407,15 @@
       <c r="I7" s="7">
         <v>0.58024959424</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>23.93</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <v>24.394089999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7">
@@ -4400,10 +3430,10 @@
       <c r="E8" s="7">
         <v>27.222851138425</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>37</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>37.050960000000003</v>
       </c>
       <c r="H8" s="7">
@@ -4412,15 +3442,15 @@
       <c r="I8" s="7">
         <v>21.463601906800001</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>32.020000000000003</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="12">
         <v>36.356409999999997</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7">
@@ -4435,10 +3465,10 @@
       <c r="E9" s="7">
         <v>4230.9575999999997</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="11">
         <v>933.68</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
         <v>933.68</v>
       </c>
       <c r="H9" s="7">
@@ -4447,15 +3477,15 @@
       <c r="I9" s="7">
         <v>97</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>8996.83</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="12">
         <v>8996.83</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="7">
@@ -4470,10 +3500,10 @@
       <c r="E10" s="7">
         <v>749.96335094363985</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>243.29750000000001</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="11">
         <v>241.2045</v>
       </c>
       <c r="H10" s="7">
@@ -4482,45 +3512,45 @@
       <c r="I10" s="7">
         <v>1.2223387323406909</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>699.61369999999999</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="12">
         <v>696.71950000000004</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="13">
         <v>10.85681406844434</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="13">
         <v>10.81196311074452</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>26.76559217679149</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>26.607204309125571</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>10.856809999999999</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>10.79345</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>1.292473562594213</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>1.297771260495596</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <v>25.769310000000001</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="15">
         <v>25.698989999999998</v>
       </c>
     </row>
@@ -4569,13 +3599,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
@@ -4583,7 +3613,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4653,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C3" s="8">
         <f>LOOKUP($B3,data!$A:$A,data!B:B)</f>
@@ -4663,11 +3693,11 @@
         <f>LOOKUP($B3,data!$A:$A,data!C:C)</f>
         <v>-985</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <f>ABS(D3)*$C$16</f>
         <v>24.748743718592966</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <f>LOOKUP($B3,data!$A:$A,data!D:D)/1000</f>
         <v>-24.756</v>
       </c>
@@ -4675,7 +3705,7 @@
         <f>LOOKUP($B3,data!$A:$A,data!J:J)/1000</f>
         <v>132.03</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <f>G3/(24*E3)</f>
         <v>0.22228401015228424</v>
       </c>
@@ -4739,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C4" s="8">
         <f>LOOKUP($B4,data!$A:$A,data!B:B)</f>
@@ -4749,11 +3779,11 @@
         <f>LOOKUP($B4,data!$A:$A,data!C:C)</f>
         <v>-680</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <f>ABS(D4)*$C$16</f>
         <v>17.085427135678394</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <f>LOOKUP($B4,data!$A:$A,data!D:D)/1000</f>
         <v>-17.082999999999998</v>
       </c>
@@ -4761,7 +3791,7 @@
         <f>LOOKUP($B4,data!$A:$A,data!J:J)/1000</f>
         <v>0.01</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="17">
         <f>G4/(24*E4)</f>
         <v>2.4387254901960781E-5</v>
       </c>
@@ -4825,7 +3855,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C5" s="8">
         <f>LOOKUP($B5,data!$A:$A,data!B:B)</f>
@@ -4835,11 +3865,11 @@
         <f>LOOKUP($B5,data!$A:$A,data!C:C)</f>
         <v>-879</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <f>ABS(D5)*$C$16</f>
         <v>22.085427135678394</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <f>LOOKUP($B5,data!$A:$A,data!D:D)/1000</f>
         <v>-22.091999999999999</v>
       </c>
@@ -4847,7 +3877,7 @@
         <f>LOOKUP($B5,data!$A:$A,data!J:J)/1000</f>
         <v>117.82299999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <f>G5/(24*E5)</f>
         <v>0.22228647136897989</v>
       </c>
@@ -4911,7 +3941,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C6" s="8">
         <f>LOOKUP($B6,data!$A:$A,data!B:B)</f>
@@ -4921,11 +3951,11 @@
         <f>LOOKUP($B6,data!$A:$A,data!C:C)</f>
         <v>-507</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <f>ABS(D6)*$C$16</f>
         <v>12.738693467336685</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <f>LOOKUP($B6,data!$A:$A,data!D:D)/1000</f>
         <v>-12.743</v>
       </c>
@@ -4933,7 +3963,7 @@
         <f>LOOKUP($B6,data!$A:$A,data!J:J)/1000</f>
         <v>33.981999999999999</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <f>G6/(24*E6)</f>
         <v>0.1111508547008547</v>
       </c>
@@ -4997,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8">
         <f>LOOKUP($B7,data!$A:$A,data!B:B)</f>
@@ -5007,11 +4037,11 @@
         <f>LOOKUP($B7,data!$A:$A,data!C:C)</f>
         <v>-985</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <f>ABS(D7)*$C$16</f>
         <v>24.748743718592966</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <f>LOOKUP($B7,data!$A:$A,data!D:D)/1000</f>
         <v>-22.242999999999999</v>
       </c>
@@ -5019,7 +4049,7 @@
         <f>LOOKUP($B7,data!$A:$A,data!J:J)/1000</f>
         <v>0.01</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <f>G7/(24*E7)</f>
         <v>1.6835871404399323E-5</v>
       </c>
@@ -5201,28 +4231,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -5232,74 +4259,38 @@
       <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5309,74 +4300,38 @@
       <c r="C2" s="3">
         <v>3408382538</v>
       </c>
-      <c r="D2" s="3">
-        <v>-762820801</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-304078615</v>
-      </c>
-      <c r="F2" s="3">
-        <v>-195937715</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-280143957</v>
-      </c>
-      <c r="H2" s="3">
-        <v>347771989</v>
-      </c>
-      <c r="I2" s="3">
-        <v>-244831480</v>
-      </c>
-      <c r="J2" s="3">
-        <v>-300272454</v>
-      </c>
-      <c r="K2" s="3">
-        <v>-185018648</v>
-      </c>
-      <c r="L2" s="3">
-        <v>-45790755</v>
-      </c>
-      <c r="M2" s="3">
-        <v>-772932309</v>
-      </c>
-      <c r="N2" s="3">
-        <v>4780292061</v>
-      </c>
-      <c r="O2" s="3">
-        <v>136894994</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-96374075</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-3543416.8</v>
-      </c>
-      <c r="R2" s="3">
-        <v>181380.53899999999</v>
-      </c>
-      <c r="S2" s="3">
-        <v>289357020</v>
-      </c>
-      <c r="T2" s="3">
-        <v>332766856</v>
-      </c>
-      <c r="U2" s="3">
-        <v>712866785</v>
-      </c>
-      <c r="V2" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="W2" s="9">
-        <v>4006951</v>
-      </c>
-      <c r="X2" s="10">
-        <v>-647890</v>
-      </c>
-      <c r="Y2">
+      <c r="D2">
         <v>2102483898.8800001</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>-850276232.79747999</v>
+      </c>
+      <c r="F2">
+        <v>-648578863.74762297</v>
+      </c>
+      <c r="G2">
+        <v>-646374412.89226401</v>
+      </c>
+      <c r="H2">
+        <v>3997579657.9047198</v>
+      </c>
+      <c r="I2">
+        <v>345184025.36356503</v>
+      </c>
+      <c r="J2">
+        <v>241978467.14636099</v>
+      </c>
+      <c r="K2">
+        <v>596143859.129655</v>
+      </c>
+      <c r="L2">
+        <v>278280502.35935098</v>
+      </c>
+      <c r="M2">
+        <v>-237789425.16703999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5387,73 +4342,37 @@
         <v>1941429066.9816799</v>
       </c>
       <c r="D3">
-        <v>-508716454.5</v>
+        <v>1058570571.16</v>
       </c>
       <c r="E3">
-        <v>-194630963.99524099</v>
+        <v>-592273814.56093204</v>
       </c>
       <c r="F3">
-        <v>-129742120.369755</v>
+        <v>-524892649.69864798</v>
       </c>
       <c r="G3">
-        <v>-179311157.69171801</v>
+        <v>-598331107.66438103</v>
       </c>
       <c r="H3">
-        <v>231925155.90662</v>
+        <v>2758549575.6982698</v>
       </c>
       <c r="I3">
-        <v>-168911091.03992</v>
+        <v>101025867.63785701</v>
       </c>
       <c r="J3">
-        <v>-227097690.40000001</v>
+        <v>157926073.055112</v>
       </c>
       <c r="K3">
-        <v>-185018648.255375</v>
+        <v>439522177.41517103</v>
       </c>
       <c r="L3">
-        <v>-47371316.814392999</v>
+        <v>240580055.152179</v>
       </c>
       <c r="M3">
-        <v>-663652627.02780199</v>
-      </c>
-      <c r="N3">
-        <v>3059708327.5964799</v>
-      </c>
-      <c r="O3">
-        <v>103534428.236957</v>
-      </c>
-      <c r="P3">
-        <v>-75404124.088522404</v>
-      </c>
-      <c r="Q3">
-        <v>-3543416.77666657</v>
-      </c>
-      <c r="R3">
-        <v>146907.40594448999</v>
-      </c>
-      <c r="S3">
-        <v>175167312.65753701</v>
-      </c>
-      <c r="T3">
-        <v>266844867.878654</v>
-      </c>
-      <c r="U3">
-        <v>487506058.74188602</v>
-      </c>
-      <c r="V3">
-        <v>-5000</v>
-      </c>
-      <c r="W3" s="9">
-        <v>3978814</v>
-      </c>
-      <c r="X3" s="10">
-        <v>-863007</v>
-      </c>
-      <c r="Y3">
-        <v>1058570571.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>-165256397.18829501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5464,73 +4383,37 @@
         <v>2357620907.3290401</v>
       </c>
       <c r="D4">
-        <v>-584742286.5</v>
+        <v>1765764570.5999999</v>
       </c>
       <c r="E4">
-        <v>-226897370.493126</v>
+        <v>-808100549.90780103</v>
       </c>
       <c r="F4">
-        <v>-163769794.49289399</v>
+        <v>-627040149.95725405</v>
       </c>
       <c r="G4">
-        <v>-209037808.50267899</v>
+        <v>-890336666.71854901</v>
       </c>
       <c r="H4">
-        <v>266585530.66260499</v>
+        <v>3567399006.3997002</v>
       </c>
       <c r="I4">
-        <v>-210602569.21965</v>
+        <v>5354708.5146538904</v>
       </c>
       <c r="J4">
-        <v>-249984024</v>
+        <v>343922316.69889998</v>
       </c>
       <c r="K4">
-        <v>-185018648.255375</v>
+        <v>607783513.62436104</v>
       </c>
       <c r="L4">
-        <v>-51384512.266982101</v>
+        <v>323551725.84004998</v>
       </c>
       <c r="M4">
-        <v>-890215763.09717703</v>
-      </c>
-      <c r="N4">
-        <v>3566914568.7290902</v>
-      </c>
-      <c r="O4">
-        <v>113968367.283283</v>
-      </c>
-      <c r="P4">
-        <v>-90035010.165675998</v>
-      </c>
-      <c r="Q4">
-        <v>-3543416.77666657</v>
-      </c>
-      <c r="R4">
-        <v>4820563.2221624199</v>
-      </c>
-      <c r="S4">
-        <v>343875625.39085001</v>
-      </c>
-      <c r="T4">
-        <v>323507771.63072997</v>
-      </c>
-      <c r="U4">
-        <v>607700986.01472199</v>
-      </c>
-      <c r="V4">
-        <v>-5000000</v>
-      </c>
-      <c r="W4" s="9">
-        <v>3989837</v>
-      </c>
-      <c r="X4" s="10">
-        <v>-995767</v>
-      </c>
-      <c r="Y4">
-        <v>1765764570.5999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+        <v>-212581225.27934501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5541,75 +4424,39 @@
         <v>1186176051.1001599</v>
       </c>
       <c r="D5">
-        <v>-354788741.69999999</v>
+        <v>262400619.102</v>
       </c>
       <c r="E5">
-        <v>-130872544.755421</v>
+        <v>-477011461.35084897</v>
       </c>
       <c r="F5">
-        <v>-85307645.409250796</v>
+        <v>-447525340.45968097</v>
       </c>
       <c r="G5">
-        <v>-120571295.68925799</v>
+        <v>-473323299.45169902</v>
       </c>
       <c r="H5">
-        <v>161749110.940222</v>
+        <v>2057729745.5437</v>
       </c>
       <c r="I5">
-        <v>-115262416.455882</v>
+        <v>424965.240070356</v>
       </c>
       <c r="J5">
-        <v>-177139512.40000001</v>
+        <v>168100833.49279401</v>
       </c>
       <c r="K5">
-        <v>-185018648.255375</v>
+        <v>296435011.320925</v>
       </c>
       <c r="L5">
-        <v>-46350130.936843403</v>
+        <v>172034347.15747201</v>
       </c>
       <c r="M5">
-        <v>-473249011.88508302</v>
-      </c>
-      <c r="N5">
-        <v>2057406787.0966201</v>
-      </c>
-      <c r="O5">
-        <v>80758364.823991895</v>
-      </c>
-      <c r="P5">
-        <v>-57548410.7829004</v>
-      </c>
-      <c r="Q5">
-        <v>-3543416.77666657</v>
-      </c>
-      <c r="R5">
-        <v>312267.29047446698</v>
-      </c>
-      <c r="S5">
-        <v>168074450.597473</v>
-      </c>
-      <c r="T5">
-        <v>172007346.60569799</v>
-      </c>
-      <c r="U5">
-        <v>296388471.49692601</v>
-      </c>
-      <c r="V5">
-        <v>-1000000</v>
-      </c>
-      <c r="W5" s="9">
-        <v>3941392</v>
-      </c>
-      <c r="X5" s="10">
-        <v>-906607</v>
-      </c>
-      <c r="Y5">
-        <v>262400619.102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>-124114712.46592499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3">
         <v>1280</v>
@@ -5618,1637 +4465,688 @@
         <v>3281939427.7312298</v>
       </c>
       <c r="D6">
-        <v>-81249856.590000004</v>
+        <v>2742484812.48</v>
       </c>
       <c r="E6">
-        <v>-25813125.198307902</v>
+        <v>-813389535.78275394</v>
       </c>
       <c r="F6">
-        <v>-1235478.77460742</v>
+        <v>-655884241.28833497</v>
       </c>
       <c r="G6">
-        <v>-23781320.648768902</v>
+        <v>-1408612528.9723499</v>
       </c>
       <c r="H6">
-        <v>37042021.131117903</v>
+        <v>3591782369.1539302</v>
       </c>
       <c r="I6">
-        <v>-29263196.6931425</v>
+        <v>774235610.60123003</v>
       </c>
       <c r="J6">
-        <v>-313966536.69999999</v>
+        <v>210438647.714158</v>
       </c>
       <c r="K6">
-        <v>-185018648.255375</v>
+        <v>640502020.67253697</v>
       </c>
       <c r="L6">
-        <v>-51384512.266982101</v>
+        <v>365601367.673567</v>
       </c>
       <c r="M6">
-        <v>-2013144975.2023101</v>
-      </c>
-      <c r="N6">
-        <v>5133263037.0468998</v>
-      </c>
-      <c r="O6">
-        <v>143138161.396833</v>
-      </c>
-      <c r="P6">
-        <v>-113079147.493301</v>
-      </c>
-      <c r="Q6">
-        <v>-3543416.77666657</v>
-      </c>
-      <c r="R6">
-        <v>2688374349.20362</v>
-      </c>
-      <c r="S6">
-        <v>300752335.53216898</v>
-      </c>
-      <c r="T6">
-        <v>522506051.25383598</v>
-      </c>
-      <c r="U6">
-        <v>915385484.95796096</v>
-      </c>
-      <c r="V6">
-        <v>-4000000000</v>
-      </c>
-      <c r="W6" s="9">
-        <v>4010362</v>
-      </c>
-      <c r="X6" s="10">
-        <v>-1572770</v>
-      </c>
-      <c r="Y6">
-        <v>2742484812.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+        <v>-237789425.16703999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="11">
-        <v>-659880292</v>
-      </c>
-      <c r="C10" s="11">
-        <v>-500016330</v>
-      </c>
-      <c r="D10" s="11">
-        <v>-283687374</v>
-      </c>
-      <c r="E10" s="11">
-        <v>-259751536</v>
-      </c>
-      <c r="F10" s="11">
-        <v>-230809403</v>
-      </c>
-      <c r="G10" s="11">
-        <v>-772932309</v>
-      </c>
-      <c r="H10" s="11">
-        <v>4780292061</v>
-      </c>
-      <c r="I10" s="11">
-        <v>181381</v>
-      </c>
-      <c r="J10" s="11">
-        <v>289357020</v>
-      </c>
-      <c r="K10" s="11">
-        <v>332766856</v>
-      </c>
-      <c r="L10" s="11">
-        <v>712866785</v>
-      </c>
-      <c r="M10" s="11">
-        <v>-5000</v>
-      </c>
-      <c r="N10">
-        <v>2102483898.8800001</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1193</v>
-      </c>
-      <c r="P10">
-        <f>H10/SUM(H10,I10,J10,K10,L10)</f>
-        <v>0.78167281836467351</v>
-      </c>
-      <c r="Q10" s="33">
-        <f>G10/SUM(B10:G10)</f>
-        <v>0.2855228127358157</v>
-      </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B10" s="20">
+        <f>E2/$B2</f>
+        <v>-712721.06688808044</v>
+      </c>
+      <c r="C10" s="20">
+        <f>F2/$B2</f>
+        <v>-543653.69970462949</v>
+      </c>
+      <c r="D10" s="20">
+        <f>G2/$B2</f>
+        <v>-541805.87836736301</v>
+      </c>
+      <c r="E10" s="20">
+        <f>H2/$B2</f>
+        <v>3350863.0829042075</v>
+      </c>
+      <c r="F10" s="20">
+        <f>I2/$B2</f>
+        <v>289341.17800801765</v>
+      </c>
+      <c r="G10" s="20">
+        <f>J2/$B2</f>
+        <v>202831.90875637971</v>
+      </c>
+      <c r="H10" s="20">
+        <f>K2/$B2</f>
+        <v>499701.47454287932</v>
+      </c>
+      <c r="I10" s="20">
+        <f>L2/$B2</f>
+        <v>233261.10843197902</v>
+      </c>
+      <c r="J10" s="20">
+        <f>M2/$B2</f>
+        <v>-199320.55755829002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11">
-        <v>-445702390</v>
-      </c>
-      <c r="C11" s="11">
-        <v>-324373084</v>
-      </c>
-      <c r="D11" s="11">
-        <v>-182854574</v>
-      </c>
-      <c r="E11" s="11">
-        <v>-198967386</v>
-      </c>
-      <c r="F11" s="11">
-        <v>-232389965</v>
-      </c>
-      <c r="G11" s="11">
-        <v>-663652627</v>
-      </c>
-      <c r="H11" s="11">
-        <v>3059708328</v>
-      </c>
-      <c r="I11" s="11">
-        <v>147031</v>
-      </c>
-      <c r="J11" s="11">
-        <v>175167313</v>
-      </c>
-      <c r="K11" s="11">
-        <v>266844868</v>
-      </c>
-      <c r="L11" s="11">
-        <v>487506059</v>
-      </c>
-      <c r="M11" s="11">
-        <v>-5000</v>
-      </c>
-      <c r="N11">
-        <v>1058570571.16</v>
-      </c>
-      <c r="O11" s="3">
-        <v>769</v>
-      </c>
-      <c r="P11">
-        <f t="shared" ref="P11:P14" si="0">H11/SUM(H11,I11,J11,K11,L11)</f>
-        <v>0.76696460034902836</v>
-      </c>
-      <c r="Q11" s="33">
-        <f t="shared" ref="Q11:Q14" si="1">G11/SUM(B11:G11)</f>
-        <v>0.32405862406832026</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B11" s="20">
+        <f t="shared" ref="B11:B14" si="0">E3/$B3</f>
+        <v>-770187.01503372181</v>
+      </c>
+      <c r="C11" s="20">
+        <f>F3/$B3</f>
+        <v>-682565.21417249413</v>
+      </c>
+      <c r="D11" s="20">
+        <f t="shared" ref="D11:D14" si="1">G3/$B3</f>
+        <v>-778063.85912143171</v>
+      </c>
+      <c r="E11" s="20">
+        <f t="shared" ref="E11:E14" si="2">H3/$B3</f>
+        <v>3587190.6055894275</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" ref="F11:F14" si="3">I3/$B3</f>
+        <v>131373.03984116646</v>
+      </c>
+      <c r="G11" s="20">
+        <f>J3/$B3</f>
+        <v>205365.50462303252</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" ref="H11:H14" si="4">K3/$B3</f>
+        <v>571550.29572844086</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" ref="I11:I14" si="5">L3/$B3</f>
+        <v>312847.92607565538</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" ref="J11:J14" si="6">M3/$B3</f>
+        <v>-214897.78568048766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="11">
-        <v>-528759325</v>
-      </c>
-      <c r="C12" s="11">
-        <v>-390960463</v>
-      </c>
-      <c r="D12" s="11">
-        <v>-212581225</v>
-      </c>
-      <c r="E12" s="11">
-        <v>-226050667</v>
-      </c>
-      <c r="F12" s="11">
-        <v>-236403161</v>
-      </c>
-      <c r="G12" s="11">
-        <v>-890215763</v>
-      </c>
-      <c r="H12" s="11">
-        <v>3566914569</v>
-      </c>
-      <c r="I12" s="11">
-        <v>230545</v>
-      </c>
-      <c r="J12" s="11">
-        <v>343875625</v>
-      </c>
-      <c r="K12" s="11">
-        <v>323507772</v>
-      </c>
-      <c r="L12" s="11">
-        <v>607700986</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-5000</v>
-      </c>
-      <c r="N12">
-        <v>1765764570.5999999</v>
-      </c>
-      <c r="O12" s="3">
-        <v>894</v>
-      </c>
-      <c r="P12">
+      <c r="B12" s="20">
         <f t="shared" si="0"/>
-        <v>0.73662650050144862</v>
-      </c>
-      <c r="Q12" s="33">
+        <v>-903915.60392371484</v>
+      </c>
+      <c r="C12" s="20">
+        <f>F4/$B4</f>
+        <v>-701387.19234592177</v>
+      </c>
+      <c r="D12" s="20">
         <f t="shared" si="1"/>
-        <v>0.3582399572723477</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+        <v>-995902.31176571478</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="2"/>
+        <v>3990379.201789374</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="3"/>
+        <v>5989.6068396575956</v>
+      </c>
+      <c r="G12" s="20">
+        <f>J4/$B4</f>
+        <v>384700.57796297537</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="4"/>
+        <v>679847.33067601908</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="5"/>
+        <v>361914.68214770692</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="6"/>
+        <v>-237786.60545788033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11">
-        <v>-308302047</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-215306258</v>
-      </c>
-      <c r="D13" s="11">
-        <v>-124114712</v>
-      </c>
-      <c r="E13" s="11">
-        <v>-153929558</v>
-      </c>
-      <c r="F13" s="11">
-        <v>-231368779</v>
-      </c>
-      <c r="G13" s="11">
-        <v>-473249012</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2057406787</v>
-      </c>
-      <c r="I13" s="11">
-        <v>4620752</v>
-      </c>
-      <c r="J13" s="11">
-        <v>168074451</v>
-      </c>
-      <c r="K13" s="11">
-        <v>172007347</v>
-      </c>
-      <c r="L13" s="11">
-        <v>296388471</v>
-      </c>
-      <c r="M13" s="11">
-        <v>-17500000</v>
-      </c>
-      <c r="N13">
-        <v>262400619.102</v>
-      </c>
-      <c r="O13" s="3">
-        <v>522</v>
-      </c>
-      <c r="P13">
+      <c r="B13" s="20">
         <f t="shared" si="0"/>
-        <v>0.76242670307182991</v>
-      </c>
-      <c r="Q13" s="33">
+        <v>-913815.0600590976</v>
+      </c>
+      <c r="C13" s="20">
+        <f>F5/$B5</f>
+        <v>-857328.23842850758</v>
+      </c>
+      <c r="D13" s="20">
         <f t="shared" si="1"/>
-        <v>0.31418596732852405</v>
-      </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+        <v>-906749.61580785247</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="2"/>
+        <v>3942011.0067886971</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="3"/>
+        <v>814.10965530719545</v>
+      </c>
+      <c r="G13" s="20">
+        <f>J5/$B5</f>
+        <v>322032.24807048659</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="4"/>
+        <v>567883.16345004784</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="5"/>
+        <v>329567.71486105752</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="6"/>
+        <v>-237767.64840215517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="11">
-        <v>-735892435</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-550901319</v>
-      </c>
-      <c r="D14" s="11">
-        <v>-304377123</v>
-      </c>
-      <c r="E14" s="11">
-        <v>-283907523</v>
-      </c>
-      <c r="F14" s="11">
-        <v>-236403161</v>
-      </c>
-      <c r="G14" s="11">
-        <v>-2013144975</v>
-      </c>
-      <c r="H14" s="11">
-        <v>5133263037</v>
-      </c>
-      <c r="I14" s="11">
-        <v>234983554</v>
-      </c>
-      <c r="J14" s="11">
-        <v>300752336</v>
-      </c>
-      <c r="K14" s="11">
-        <v>522506051</v>
-      </c>
-      <c r="L14" s="11">
-        <v>915385485</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-200000000</v>
-      </c>
-      <c r="N14">
-        <v>2742484812.48</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1280</v>
-      </c>
-      <c r="P14">
+        <v>46</v>
+      </c>
+      <c r="B14" s="20">
         <f t="shared" si="0"/>
-        <v>0.72229381664525028</v>
-      </c>
-      <c r="Q14" s="33">
+        <v>-635460.57483027654</v>
+      </c>
+      <c r="C14" s="20">
+        <f>F6/$B6</f>
+        <v>-512409.56350651168</v>
+      </c>
+      <c r="D14" s="20">
         <f t="shared" si="1"/>
-        <v>0.48807933456014596</v>
-      </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+        <v>-1100478.5382596483</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="2"/>
+        <v>2806079.9759015078</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="3"/>
+        <v>604871.57078221091</v>
+      </c>
+      <c r="G14" s="20">
+        <f>J6/$B6</f>
+        <v>164405.19352668594</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="4"/>
+        <v>500392.20365041948</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="5"/>
+        <v>285626.06849497423</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="6"/>
+        <v>-185772.98841175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3">
-        <f>AVERAGE(P10:P14)</f>
-        <v>0.75399688778644613</v>
-      </c>
-      <c r="Q15" s="3">
-        <f>AVERAGE(Q10:Q14)</f>
-        <v>0.35401733919303069</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f t="shared" ref="B16:N16" si="2">B9</f>
-        <v>HTSE CAPEX</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>HTSE OM</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Cap Market</v>
-      </c>
-      <c r="E16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>FT CAPEX</v>
-      </c>
-      <c r="F16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>FT OM</v>
-      </c>
-      <c r="G16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>CO2</v>
-      </c>
-      <c r="H16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>H2 PTC</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Electricity sales</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Naphta</v>
-      </c>
-      <c r="K16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Diesel</v>
-      </c>
-      <c r="L16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Jet fuel</v>
-      </c>
-      <c r="M16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Storage CAPEX</v>
-      </c>
-      <c r="N16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>BAU NPV</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f>A10</f>
         <v>Braidwood</v>
       </c>
-      <c r="B17" s="11">
-        <f t="shared" ref="B17:N17" si="3">B10/$O10</f>
-        <v>-553126.8164291702</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" si="3"/>
-        <v>-419125.17183570832</v>
-      </c>
-      <c r="D17" s="11">
-        <f t="shared" si="3"/>
-        <v>-237793.27242246439</v>
-      </c>
-      <c r="E17" s="11">
-        <f t="shared" si="3"/>
-        <v>-217729.70326906958</v>
-      </c>
-      <c r="F17" s="11">
-        <f t="shared" si="3"/>
-        <v>-193469.74266554904</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="3"/>
-        <v>-647889.61357921211</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="3"/>
-        <v>4006950.5959765296</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="3"/>
-        <v>152.03772003352893</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="3"/>
-        <v>242545.69991617769</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" si="3"/>
-        <v>278932.82145850797</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="3"/>
-        <v>597541.31181894382</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="3"/>
-        <v>-4.1911148365465216</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="3"/>
-        <v>1762350.2924392289</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="32">
+        <f>E10/$E17</f>
+        <v>0.73226922996176103</v>
+      </c>
+      <c r="C17" s="32">
+        <f>SUM(G10:I10)/$E17</f>
+        <v>0.20450060026582137</v>
+      </c>
+      <c r="D17" s="32">
+        <f>F10/$E17</f>
+        <v>6.323016977241766E-2</v>
+      </c>
+      <c r="E17" s="4">
+        <f>SUM(E10:I10)</f>
+        <v>4575998.7526434632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
-        <f>A11</f>
+        <f t="shared" ref="A18:A21" si="7">A11</f>
         <v>Cooper</v>
       </c>
-      <c r="B18" s="11">
-        <f t="shared" ref="B18:N18" si="4">B11/$O11</f>
-        <v>-579586.98309492844</v>
-      </c>
-      <c r="C18" s="11">
-        <f t="shared" si="4"/>
-        <v>-421811.55266579974</v>
-      </c>
-      <c r="D18" s="11">
-        <f t="shared" si="4"/>
-        <v>-237782.28088426529</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" si="4"/>
-        <v>-258735.22236671002</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" si="4"/>
-        <v>-302197.61378413526</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="4"/>
-        <v>-863007.31729518855</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="4"/>
-        <v>3978814.4707412221</v>
-      </c>
-      <c r="I18" s="11">
-        <f t="shared" si="4"/>
-        <v>191.19765929778933</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="4"/>
-        <v>227785.84265279584</v>
-      </c>
-      <c r="K18" s="11">
-        <f t="shared" si="4"/>
-        <v>347002.42912873864</v>
-      </c>
-      <c r="L18" s="11">
-        <f t="shared" si="4"/>
-        <v>633948.06111833546</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="4"/>
-        <v>-6.5019505851755524</v>
-      </c>
-      <c r="N18" s="11">
-        <f t="shared" si="4"/>
-        <v>1376554.7089206763</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="32">
+        <f t="shared" ref="B18:B20" si="8">E11/$E18</f>
+        <v>0.7460370994255946</v>
+      </c>
+      <c r="C18" s="32">
+        <f t="shared" ref="C18:C20" si="9">SUM(G11:I11)/$E18</f>
+        <v>0.22664091733963881</v>
+      </c>
+      <c r="D18" s="32">
+        <f t="shared" ref="D18:D21" si="10">F11/$E18</f>
+        <v>2.732198323476669E-2</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" ref="E18:E21" si="11">SUM(E11:I11)</f>
+        <v>4808327.3718577223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
-        <f>A12</f>
+        <f t="shared" si="7"/>
         <v>Davis-Besse</v>
       </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:N19" si="5">B12/$O12</f>
-        <v>-591453.38366890384</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="5"/>
-        <v>-437315.95413870248</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="5"/>
-        <v>-237786.60514541387</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="5"/>
-        <v>-252853.09507829978</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="5"/>
-        <v>-264433.06599552574</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="5"/>
-        <v>-995767.07270693511</v>
-      </c>
-      <c r="H19" s="11">
-        <f t="shared" si="5"/>
-        <v>3989837.3255033558</v>
-      </c>
-      <c r="I19" s="11">
-        <f t="shared" si="5"/>
-        <v>257.88031319910516</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="5"/>
-        <v>384648.35011185682</v>
-      </c>
-      <c r="K19" s="11">
-        <f t="shared" si="5"/>
-        <v>361865.51677852351</v>
-      </c>
-      <c r="L19" s="11">
-        <f t="shared" si="5"/>
-        <v>679755.01789709169</v>
-      </c>
-      <c r="M19" s="11">
-        <f t="shared" si="5"/>
-        <v>-5.592841163310962</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="5"/>
-        <v>1975128.155033557</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="32">
+        <f t="shared" si="8"/>
+        <v>0.73584791926581106</v>
+      </c>
+      <c r="C19" s="32">
+        <f t="shared" si="9"/>
+        <v>0.26304756421901504</v>
+      </c>
+      <c r="D19" s="32">
+        <f t="shared" si="10"/>
+        <v>1.1045165151737759E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="11"/>
+        <v>5422831.3994157333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
-        <f>A13</f>
+        <f t="shared" si="7"/>
         <v>Prairie-Island</v>
       </c>
-      <c r="B20" s="11">
-        <f t="shared" ref="B20:N20" si="6">B13/$O13</f>
-        <v>-590616.94827586203</v>
-      </c>
-      <c r="C20" s="11">
-        <f t="shared" si="6"/>
-        <v>-412464.09578544059</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="6"/>
-        <v>-237767.64750957856</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="6"/>
-        <v>-294884.21072796936</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="6"/>
-        <v>-443235.20881226053</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="6"/>
-        <v>-906607.3026819923</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="6"/>
-        <v>3941392.3122605365</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="6"/>
-        <v>8852.015325670498</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="6"/>
-        <v>321981.70689655171</v>
-      </c>
-      <c r="K20" s="11">
-        <f t="shared" si="6"/>
-        <v>329515.99042145594</v>
-      </c>
-      <c r="L20" s="11">
-        <f t="shared" si="6"/>
-        <v>567794.00574712642</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" si="6"/>
-        <v>-33524.904214559385</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="6"/>
-        <v>502683.17835632182</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="32">
+        <f t="shared" si="8"/>
+        <v>0.76361403104263925</v>
+      </c>
+      <c r="C20" s="32">
+        <f t="shared" si="9"/>
+        <v>0.23622826631408325</v>
+      </c>
+      <c r="D20" s="32">
+        <f t="shared" si="10"/>
+        <v>1.577026432775722E-4</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="11"/>
+        <v>5162308.2428255957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
-        <f>A14</f>
+        <f t="shared" si="7"/>
         <v>STP</v>
       </c>
-      <c r="B21" s="11">
-        <f t="shared" ref="B21:N21" si="7">B14/$O14</f>
-        <v>-574915.96484375</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="7"/>
-        <v>-430391.65546874999</v>
-      </c>
-      <c r="D21" s="11">
-        <f t="shared" si="7"/>
-        <v>-237794.62734375001</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="7"/>
-        <v>-221802.75234375001</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="7"/>
-        <v>-184689.96953125001</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="7"/>
-        <v>-1572769.51171875</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="7"/>
-        <v>4010361.7476562499</v>
-      </c>
-      <c r="I21" s="11">
-        <f t="shared" si="7"/>
-        <v>183580.90156249999</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="7"/>
-        <v>234962.76250000001</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" si="7"/>
-        <v>408207.85234375001</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="7"/>
-        <v>715144.91015625</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="7"/>
-        <v>-156250</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="7"/>
-        <v>2142566.2597500002</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="32">
+        <f>E14/$E21</f>
+        <v>0.64339341789042859</v>
+      </c>
+      <c r="C21" s="32">
+        <f>SUM(G14:I14)/$E21</f>
+        <v>0.2179183085562523</v>
+      </c>
+      <c r="D21" s="32">
+        <f t="shared" si="10"/>
+        <v>0.13868827355331897</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="11"/>
+        <v>4361375.0123557989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="str">
+        <f>A17</f>
+        <v>Braidwood</v>
+      </c>
+      <c r="B24" s="32">
+        <f>B10/$F24</f>
+        <v>0.3568063268194846</v>
+      </c>
+      <c r="C24" s="32">
+        <f t="shared" ref="C24:E24" si="12">C10/$F24</f>
+        <v>0.27216689482800538</v>
+      </c>
+      <c r="D24" s="32">
+        <f t="shared" si="12"/>
+        <v>0.27124182838251998</v>
+      </c>
+      <c r="E24" s="32">
+        <f>J10/$F24</f>
+        <v>9.9784949969990169E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <f>SUM(B10:D10,J10)</f>
+        <v>-1997501.2025183628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="str">
+        <f t="shared" ref="A25:A28" si="13">A18</f>
+        <v>Cooper</v>
+      </c>
+      <c r="B25" s="32">
+        <f t="shared" ref="B25:E25" si="14">B11/$F25</f>
+        <v>0.31491296803722507</v>
+      </c>
+      <c r="C25" s="32">
+        <f t="shared" si="14"/>
+        <v>0.27908629109335609</v>
+      </c>
+      <c r="D25" s="32">
+        <f t="shared" si="14"/>
+        <v>0.31813364081151041</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" ref="E25:E28" si="15">J11/$F25</f>
+        <v>8.7867100057908418E-2</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" ref="F25:F28" si="16">SUM(B11:D11,J11)</f>
+        <v>-2445713.8740081354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Davis-Besse</v>
+      </c>
+      <c r="B26" s="32">
+        <f t="shared" ref="B26:E26" si="17">B12/$F26</f>
+        <v>0.31839318150439183</v>
+      </c>
+      <c r="C26" s="32">
+        <f t="shared" si="17"/>
+        <v>0.24705503331071765</v>
+      </c>
+      <c r="D26" s="32">
+        <f>D12/$F26</f>
+        <v>0.35079437077338588</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="15"/>
+        <v>8.3757414411504666E-2</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="16"/>
+        <v>-2838991.7134932317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>Prairie-Island</v>
+      </c>
+      <c r="B27" s="32">
+        <f t="shared" ref="B27:E27" si="18">B13/$F27</f>
+        <v>0.31341613346569475</v>
+      </c>
+      <c r="C27" s="32">
+        <f t="shared" si="18"/>
+        <v>0.29404254027269028</v>
+      </c>
+      <c r="D27" s="32">
+        <f t="shared" si="18"/>
+        <v>0.31099285952851596</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="15"/>
+        <v>8.1548466733099068E-2</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="16"/>
+        <v>-2915660.5626976127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>STP</v>
+      </c>
+      <c r="B28" s="32">
+        <f t="shared" ref="B28:E28" si="19">B14/$F28</f>
+        <v>0.26106360415971208</v>
+      </c>
+      <c r="C28" s="32">
+        <f t="shared" si="19"/>
+        <v>0.2105110729971619</v>
+      </c>
+      <c r="D28" s="32">
+        <f t="shared" si="19"/>
+        <v>0.45210498475882344</v>
+      </c>
+      <c r="E28" s="32">
+        <f t="shared" si="15"/>
+        <v>7.6320338084302441E-2</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="16"/>
+        <v>-2434121.6650081868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7268,10 +5166,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -7291,10 +5189,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>-12036524.699999999</v>
@@ -7314,10 +5212,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>-88.977912595000106</v>
@@ -7337,10 +5235,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>12036524.699999999</v>
@@ -7360,10 +5258,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>-25932350.640000001</v>
@@ -7383,10 +5281,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>21724460.112</v>
@@ -7406,10 +5304,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C7">
         <v>17932465.475999899</v>
@@ -7429,10 +5327,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -7452,10 +5350,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>-13052.4</v>
@@ -7475,10 +5373,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -7498,10 +5396,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>34.626940449350101</v>
@@ -7521,10 +5419,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>558.895000005253</v>
@@ -7544,10 +5442,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>-1031926.6202999901</v>
@@ -7567,10 +5465,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>25932316.001499798</v>
@@ -7590,10 +5488,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>-21724460.112</v>
@@ -7613,10 +5511,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C16">
         <v>-17932465.475999899</v>
@@ -7636,10 +5534,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>1045068</v>
@@ -7659,7 +5557,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B19" t="str">
         <f>C1</f>
@@ -7684,17 +5582,17 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7717,103 +5615,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" t="s">
+        <v>94</v>
+      </c>
+      <c r="X1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="AC1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" t="s">
-        <v>117</v>
-      </c>
-      <c r="S1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T1" t="s">
-        <v>119</v>
-      </c>
-      <c r="U1" t="s">
-        <v>120</v>
-      </c>
-      <c r="V1" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" t="s">
-        <v>122</v>
-      </c>
-      <c r="X1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="B2">
         <v>1193</v>
@@ -7827,38 +5725,38 @@
       <c r="E2">
         <v>-14.9</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J2">
         <v>132030</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="18">
         <v>9.9999999999999997E+199</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Q2">
         <v>3077005381</v>
@@ -7884,7 +5782,7 @@
       <c r="X2">
         <v>4</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="18">
         <v>1560000000000</v>
       </c>
       <c r="Z2">
@@ -7893,7 +5791,7 @@
       <c r="AA2">
         <v>3.42925E-4</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="18">
         <v>4.1299999999999998E-14</v>
       </c>
       <c r="AC2">
@@ -7907,8 +5805,8 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>138</v>
+      <c r="A3" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="B3">
         <v>769</v>
@@ -7922,38 +5820,38 @@
       <c r="E3">
         <v>-14.9</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J3">
         <v>10</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>9.9999999999999997E+199</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="M3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="O3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>1819594437</v>
@@ -7979,7 +5877,7 @@
       <c r="X3">
         <v>4</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="18">
         <v>11500000000000</v>
       </c>
       <c r="Z3">
@@ -7994,7 +5892,7 @@
       <c r="AC3">
         <v>5.5554106999999998E-2</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AD3" s="18">
         <v>2.79E-14</v>
       </c>
       <c r="AE3">
@@ -8002,8 +5900,8 @@
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>141</v>
+      <c r="A4" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="B4">
         <v>894</v>
@@ -8017,38 +5915,38 @@
       <c r="E4">
         <v>-14.9</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J4">
         <v>117823</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>9.9999999999999997E+199</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N4" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>2309967026</v>
@@ -8092,13 +5990,13 @@
       <c r="AD4">
         <v>11</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="18">
         <v>5.9499999999999999E-14</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>144</v>
+      <c r="A5" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="B5">
         <v>522</v>
@@ -8112,38 +6010,38 @@
       <c r="E5">
         <v>-14.9</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J5">
         <v>33982</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>9.9999999999999997E+199</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="O5" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>1172753941</v>
@@ -8178,7 +6076,7 @@
       <c r="AA5">
         <v>5.5687203999999997E-2</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="18">
         <v>7.3100000000000002E-13</v>
       </c>
       <c r="AC5">
@@ -8192,8 +6090,8 @@
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>147</v>
+      <c r="A6" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="B6">
         <v>1280</v>
@@ -8207,38 +6105,38 @@
       <c r="E6">
         <v>-14.9</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>9.9999999999999997E+199</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="M6" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="O6" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>2519118573</v>
@@ -8264,10 +6162,10 @@
       <c r="X6">
         <v>10</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="18">
         <v>558000000000000</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="18">
         <v>5.9100000000000002E-15</v>
       </c>
       <c r="AA6">
@@ -8310,40 +6208,40 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="Q1" t="s">
         <v>28</v>
@@ -8352,15 +6250,15 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="T1" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>2102483898.8800001</v>
@@ -8385,7 +6283,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="K2">
         <v>972148741.11999989</v>
@@ -8400,10 +6298,10 @@
         <v>10442175.570933471</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="S2">
         <v>-961918169.88000011</v>
@@ -8414,7 +6312,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>3129157077.0999999</v>
@@ -8439,7 +6337,7 @@
         <v>1.0170885706250531E-2</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="K3">
         <v>1535805611.8199999</v>
@@ -8454,10 +6352,10 @@
         <v>10442175.557708761</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R3" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="S3">
         <v>-961918169.88000011</v>
@@ -8468,7 +6366,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B4">
         <v>3074632640</v>
@@ -8493,7 +6391,7 @@
         <v>1.0741335212005283E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="K4">
         <v>895251155.11999989</v>
@@ -8508,10 +6406,10 @@
         <v>10442175.505490299</v>
       </c>
       <c r="Q4" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="R4" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="S4">
         <v>895251155.11999989</v>
@@ -8522,7 +6420,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>3742129513.6399999</v>
@@ -8547,7 +6445,7 @@
         <v>6.3685563983665594E-3</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="K5">
         <v>1488604013.21</v>
@@ -8562,10 +6460,10 @@
         <v>10442175.57572766</v>
       </c>
       <c r="Q5" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="R5" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="S5">
         <v>895251155.11999989</v>
@@ -8576,7 +6474,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <v>3336092227.0700002</v>
@@ -8601,7 +6499,7 @@
         <v>8.4647414391264691E-3</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>-961918169.88000011</v>
@@ -8616,10 +6514,10 @@
         <v>10442175.528010551</v>
       </c>
       <c r="Q6" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="R6" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="S6">
         <v>972148741.11999989</v>
@@ -8630,7 +6528,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="B7">
         <v>2927999270.48</v>
@@ -8655,10 +6553,10 @@
         <v>1.2649280579076208E-2</v>
       </c>
       <c r="Q7" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="R7" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="S7">
         <v>972148741.11999989</v>
@@ -8669,7 +6567,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="B8">
         <v>2997735054</v>
@@ -8694,10 +6592,10 @@
         <v>1.1663962043322037E-2</v>
       </c>
       <c r="Q8" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="R8" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="S8">
         <v>1535805611.8199997</v>
@@ -8708,7 +6606,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>2587092125.7199998</v>
@@ -8733,10 +6631,10 @@
         <v>2.154766454044935E-2</v>
       </c>
       <c r="Q9" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="R9" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="S9">
         <v>1535805611.8199997</v>
@@ -8747,7 +6645,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>3591087912.0900002</v>
@@ -8772,10 +6670,10 @@
         <v>7.0147436417121543E-3</v>
       </c>
       <c r="Q10" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="R10" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="S10">
         <v>1488604013.21</v>
@@ -8786,7 +6684,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B11">
         <v>3225675050</v>
@@ -8811,10 +6709,10 @@
         <v>9.2968819824792524E-3</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="R11" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="S11">
         <v>1488604013.21</v>
@@ -8825,7 +6723,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <v>1140565729</v>
@@ -8850,10 +6748,10 @@
         <v>-1.4693771749184141E-2</v>
       </c>
       <c r="Q12" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="R12" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="S12">
         <v>1305852886.8399997</v>
@@ -8864,7 +6762,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B13">
         <v>2930351886</v>
@@ -8889,10 +6787,10 @@
         <v>1.2613334119050742E-2</v>
       </c>
       <c r="Q13" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="R13" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="S13">
         <v>1305852886.8399997</v>
@@ -8903,7 +6801,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="B14">
         <v>3408336785.7199998</v>
@@ -8930,7 +6828,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B15">
         <v>3408425168</v>
@@ -8960,21 +6858,21 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <f>E12</f>
@@ -8995,7 +6893,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <f>E8</f>
@@ -9016,7 +6914,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B20">
         <f>E4</f>
@@ -9037,7 +6935,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B21">
         <f>E6</f>
@@ -9058,7 +6956,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <f>E10</f>
@@ -9079,7 +6977,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B23">
         <f>E14</f>
@@ -9119,18 +7017,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>2102483898.8800001</v>
@@ -9141,27 +7039,27 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>3408381162.0100002</v>
@@ -9183,7 +7081,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>610618098.39999998</v>
@@ -9205,7 +7103,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>1140565729</v>
@@ -9227,7 +7125,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="B8">
         <v>2930351886</v>
@@ -9249,10 +7147,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
